--- a/testapp/src/main/resources/defaults/swadeshi_list.xlsx
+++ b/testapp/src/main/resources/defaults/swadeshi_list.xlsx
@@ -1,13 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="2520" windowWidth="19320" windowHeight="5835"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="Name">Sheet1!$A:$A</definedName>
@@ -18,25 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1533" uniqueCount="473">
-  <si>
-    <t>itemName</t>
-  </si>
-  <si>
-    <t>productName</t>
-  </si>
-  <si>
-    <t>categoryName</t>
-  </si>
-  <si>
-    <t>BossName</t>
-  </si>
-  <si>
-    <t>ParentName</t>
-  </si>
-  <si>
-    <t>Country</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1527" uniqueCount="467">
   <si>
     <t>Coca Cola</t>
   </si>
@@ -1442,8 +1425,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1614,7 +1597,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1646,9 +1629,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1680,6 +1664,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1855,14 +1840,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F479"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F478"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="20.42578125" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
@@ -1870,2206 +1855,2200 @@
     <col min="5" max="5" width="26.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="B5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75">
-      <c r="A2" s="2" t="s">
+      <c r="B6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="D6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="B9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="B10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="B11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="15.75">
-      <c r="A3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="15.75">
-      <c r="A4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="15.75">
-      <c r="A5" s="2" t="s">
+      <c r="E11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="15.75">
-      <c r="A6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="15.75">
-      <c r="A7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="15.75">
-      <c r="A8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="4" t="s">
+    </row>
+    <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="B16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="15.75">
-      <c r="A9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="1" t="s">
+      <c r="B17" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="15.75">
-      <c r="A10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="15.75">
-      <c r="A11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="15.75">
-      <c r="A12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="15.75">
-      <c r="A13" s="2" t="s">
+      <c r="C17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B18" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="4" t="s">
+      <c r="C18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+    </row>
+    <row r="33" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="16.5" thickBot="1">
-      <c r="A14" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="4" t="s">
+      <c r="B33" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E14" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="15.75">
-      <c r="A15" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="15.75">
-      <c r="A16" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="15.75">
-      <c r="A17" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="15.75">
-      <c r="A18" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="15.75">
-      <c r="A19" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="15.75">
-      <c r="A20" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="15.75">
-      <c r="A21" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="15.75">
-      <c r="A22" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="15.75">
-      <c r="A23" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="15.75">
-      <c r="A24" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="15.75">
-      <c r="A25" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="15.75">
-      <c r="A26" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="15.75">
-      <c r="A27" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="15.75">
-      <c r="A28" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="16.5" thickBot="1">
-      <c r="A29" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="16.5" thickBot="1">
-      <c r="A30" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="15.75">
-      <c r="A31" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="15.75">
-      <c r="A32" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="15.75">
-      <c r="A33" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="C33" s="1" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
     </row>
-    <row r="34" spans="1:6" ht="15.75">
+    <row r="34" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
     </row>
-    <row r="35" spans="1:6" ht="15.75">
+    <row r="35" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
     </row>
-    <row r="36" spans="1:6" ht="15.75">
+    <row r="36" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
     </row>
-    <row r="37" spans="1:6" ht="15.75">
+    <row r="37" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
     </row>
-    <row r="38" spans="1:6" ht="15.75">
+    <row r="38" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
     </row>
-    <row r="39" spans="1:6" ht="15.75">
+    <row r="39" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
     </row>
-    <row r="40" spans="1:6" ht="15.75">
+    <row r="40" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
     </row>
-    <row r="41" spans="1:6" ht="15.75">
+    <row r="41" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
     </row>
-    <row r="42" spans="1:6" ht="15.75">
+    <row r="42" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
     </row>
-    <row r="43" spans="1:6" ht="15.75">
+    <row r="43" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
     </row>
-    <row r="44" spans="1:6" ht="15.75">
+    <row r="44" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
     </row>
-    <row r="45" spans="1:6" ht="15.75">
+    <row r="45" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
     </row>
-    <row r="46" spans="1:6" ht="15.75">
+    <row r="46" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
     </row>
-    <row r="47" spans="1:6" ht="15.75">
+    <row r="47" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
     </row>
-    <row r="48" spans="1:6" ht="15.75">
+    <row r="48" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
     </row>
-    <row r="49" spans="1:6" ht="15.75">
+    <row r="49" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>71</v>
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
     </row>
-    <row r="50" spans="1:6" ht="15.75">
+    <row r="50" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
     </row>
-    <row r="51" spans="1:6" ht="15.75">
+    <row r="51" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
     </row>
-    <row r="52" spans="1:6" ht="15.75">
+    <row r="52" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
     </row>
-    <row r="53" spans="1:6" ht="15.75">
+    <row r="53" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
     </row>
-    <row r="54" spans="1:6" ht="15.75">
+    <row r="54" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
     </row>
-    <row r="55" spans="1:6" ht="15.75">
+    <row r="55" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
     </row>
-    <row r="56" spans="1:6" ht="15.75">
+    <row r="56" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
     </row>
-    <row r="57" spans="1:6" ht="15.75">
+    <row r="57" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
     </row>
-    <row r="58" spans="1:6" ht="15.75">
+    <row r="58" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
     </row>
-    <row r="59" spans="1:6" ht="15.75">
+    <row r="59" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
     </row>
-    <row r="60" spans="1:6" ht="15.75">
+    <row r="60" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
     </row>
-    <row r="61" spans="1:6" ht="15.75">
+    <row r="61" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
     </row>
-    <row r="62" spans="1:6" ht="15.75">
+    <row r="62" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
     </row>
-    <row r="63" spans="1:6" ht="15.75">
+    <row r="63" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
     </row>
-    <row r="64" spans="1:6" ht="15.75">
+    <row r="64" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
     </row>
-    <row r="65" spans="1:6" ht="15.75">
+    <row r="65" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
     </row>
-    <row r="66" spans="1:6" ht="15.75">
+    <row r="66" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
     </row>
-    <row r="67" spans="1:6" ht="15.75">
+    <row r="67" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
     </row>
-    <row r="68" spans="1:6" ht="15.75">
+    <row r="68" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
     </row>
-    <row r="69" spans="1:6" ht="15.75">
+    <row r="69" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
     </row>
-    <row r="70" spans="1:6" ht="15.75">
+    <row r="70" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
     </row>
-    <row r="71" spans="1:6" ht="15.75">
+    <row r="71" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
     </row>
-    <row r="72" spans="1:6" ht="15.75">
+    <row r="72" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
     </row>
-    <row r="73" spans="1:6" ht="15.75">
+    <row r="73" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
     </row>
-    <row r="74" spans="1:6" ht="15.75">
+    <row r="74" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
     </row>
-    <row r="75" spans="1:6" ht="15.75">
+    <row r="75" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
     </row>
-    <row r="76" spans="1:6" ht="15.75">
+    <row r="76" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
     </row>
-    <row r="77" spans="1:6" ht="15.75">
+    <row r="77" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
     </row>
-    <row r="78" spans="1:6" ht="15.75">
+    <row r="78" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
     </row>
-    <row r="79" spans="1:6" ht="15.75">
+    <row r="79" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
     </row>
-    <row r="80" spans="1:6" ht="15.75">
+    <row r="80" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
     </row>
-    <row r="81" spans="1:6" ht="15.75">
+    <row r="81" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
     </row>
-    <row r="82" spans="1:6" ht="15.75">
+    <row r="82" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C82" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>108</v>
       </c>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
     </row>
-    <row r="83" spans="1:6" ht="15.75">
+    <row r="83" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
     </row>
-    <row r="84" spans="1:6" ht="15.75">
+    <row r="84" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>104</v>
+        <v>59</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>104</v>
+        <v>59</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
     </row>
-    <row r="85" spans="1:6" ht="15.75">
+    <row r="85" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>65</v>
+        <v>99</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>65</v>
+        <v>99</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
     </row>
-    <row r="86" spans="1:6" ht="15.75">
+    <row r="86" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
     </row>
-    <row r="87" spans="1:6" ht="15.75">
+    <row r="87" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
     </row>
-    <row r="88" spans="1:6" ht="15.75">
+    <row r="88" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
     </row>
-    <row r="89" spans="1:6" ht="15.75">
+    <row r="89" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
     </row>
-    <row r="90" spans="1:6" ht="15.75">
+    <row r="90" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
     </row>
-    <row r="91" spans="1:6" ht="15.75">
+    <row r="91" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
     </row>
-    <row r="92" spans="1:6" ht="15.75">
+    <row r="92" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C92" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>118</v>
       </c>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
     </row>
-    <row r="93" spans="1:6" ht="15.75">
+    <row r="93" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
     </row>
-    <row r="94" spans="1:6" ht="15.75">
+    <row r="94" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
     </row>
-    <row r="95" spans="1:6" ht="15.75">
+    <row r="95" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
     </row>
-    <row r="96" spans="1:6" ht="15.75">
+    <row r="96" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
     </row>
-    <row r="97" spans="1:6" ht="15.75">
+    <row r="97" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>117</v>
+        <v>56</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>117</v>
+        <v>56</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
     </row>
-    <row r="98" spans="1:6" ht="15.75">
+    <row r="98" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
     </row>
-    <row r="99" spans="1:6" ht="15.75">
+    <row r="99" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
     </row>
-    <row r="100" spans="1:6" ht="15.75">
+    <row r="100" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>121</v>
+        <v>193</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>121</v>
+        <v>194</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
     </row>
-    <row r="101" spans="1:6" ht="15.75">
+    <row r="101" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
     </row>
-    <row r="102" spans="1:6" ht="15.75">
+    <row r="102" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
     </row>
-    <row r="103" spans="1:6" ht="15.75">
+    <row r="103" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>198</v>
+        <v>116</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>198</v>
+        <v>116</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
       <c r="F103" s="1"/>
     </row>
-    <row r="104" spans="1:6" ht="15.75">
+    <row r="104" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
       <c r="F104" s="1"/>
     </row>
-    <row r="105" spans="1:6" ht="15.75">
+    <row r="105" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
       <c r="F105" s="1"/>
     </row>
-    <row r="106" spans="1:6" ht="15.75">
+    <row r="106" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>124</v>
+        <v>35</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>124</v>
+        <v>35</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
       <c r="F106" s="1"/>
     </row>
-    <row r="107" spans="1:6" ht="15.75">
+    <row r="107" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>41</v>
+        <v>197</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>41</v>
+        <v>197</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
       <c r="F107" s="1"/>
     </row>
-    <row r="108" spans="1:6" ht="15.75">
+    <row r="108" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
       <c r="F108" s="1"/>
     </row>
-    <row r="109" spans="1:6" ht="15.75">
+    <row r="109" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>202</v>
+        <v>44</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>202</v>
+        <v>44</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
       <c r="F109" s="1"/>
     </row>
-    <row r="110" spans="1:6" ht="15.75">
+    <row r="110" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D110" s="1"/>
       <c r="E110" s="1"/>
       <c r="F110" s="1"/>
     </row>
-    <row r="111" spans="1:6" ht="15.75">
+    <row r="111" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
       <c r="F111" s="1"/>
     </row>
-    <row r="112" spans="1:6" ht="15.75">
+    <row r="112" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D112" s="1"/>
       <c r="E112" s="1"/>
       <c r="F112" s="1"/>
     </row>
-    <row r="113" spans="1:6" ht="15.75">
+    <row r="113" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>128</v>
+        <v>198</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>128</v>
+        <v>198</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D113" s="1"/>
       <c r="E113" s="1"/>
       <c r="F113" s="1"/>
     </row>
-    <row r="114" spans="1:6" ht="15.75">
+    <row r="114" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
       <c r="F114" s="1"/>
     </row>
-    <row r="115" spans="1:6" ht="15.75">
+    <row r="115" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
       <c r="F115" s="1"/>
     </row>
-    <row r="116" spans="1:6" ht="15.75">
+    <row r="116" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>206</v>
+        <v>123</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>206</v>
+        <v>123</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D116" s="1"/>
       <c r="E116" s="1"/>
       <c r="F116" s="1"/>
     </row>
-    <row r="117" spans="1:6" ht="15.75">
+    <row r="117" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
       <c r="F117" s="1"/>
     </row>
-    <row r="118" spans="1:6" ht="15.75">
+    <row r="118" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>123</v>
+        <v>78</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>123</v>
+        <v>78</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
       <c r="F118" s="1"/>
     </row>
-    <row r="119" spans="1:6" ht="15.75">
+    <row r="119" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>84</v>
+        <v>124</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>84</v>
+        <v>124</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D119" s="1"/>
       <c r="E119" s="1"/>
       <c r="F119" s="1"/>
     </row>
-    <row r="120" spans="1:6" ht="15.75">
+    <row r="120" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
       <c r="F120" s="1"/>
     </row>
-    <row r="121" spans="1:6" ht="15.75">
+    <row r="121" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
       <c r="F121" s="1"/>
     </row>
-    <row r="122" spans="1:6" ht="15.75">
+    <row r="122" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D122" s="1"/>
       <c r="E122" s="1"/>
       <c r="F122" s="1"/>
     </row>
-    <row r="123" spans="1:6" ht="15.75">
+    <row r="123" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="D123" s="1"/>
       <c r="E123" s="1"/>
       <c r="F123" s="1"/>
     </row>
-    <row r="124" spans="1:6" ht="15.75">
+    <row r="124" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D124" s="1"/>
       <c r="E124" s="1"/>
       <c r="F124" s="1"/>
     </row>
-    <row r="125" spans="1:6" ht="15.75">
+    <row r="125" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D125" s="1"/>
       <c r="E125" s="1"/>
       <c r="F125" s="1"/>
     </row>
-    <row r="126" spans="1:6" ht="15.75">
+    <row r="126" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
       <c r="F126" s="1"/>
     </row>
-    <row r="127" spans="1:6" ht="15.75">
+    <row r="127" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
       <c r="F127" s="1"/>
     </row>
-    <row r="128" spans="1:6" ht="15.75">
+    <row r="128" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
       <c r="F128" s="1"/>
     </row>
-    <row r="129" spans="1:6" ht="15.75">
+    <row r="129" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D129" s="1"/>
       <c r="E129" s="1"/>
       <c r="F129" s="1"/>
     </row>
-    <row r="130" spans="1:6" ht="15.75">
+    <row r="130" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D130" s="1"/>
       <c r="E130" s="1"/>
       <c r="F130" s="1"/>
     </row>
-    <row r="131" spans="1:6" ht="15.75">
+    <row r="131" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D131" s="1"/>
       <c r="E131" s="1"/>
       <c r="F131" s="1"/>
     </row>
-    <row r="132" spans="1:6" ht="15.75">
+    <row r="132" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D132" s="1"/>
       <c r="E132" s="1"/>
       <c r="F132" s="1"/>
     </row>
-    <row r="133" spans="1:6" ht="15.75">
+    <row r="133" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="D133" s="1"/>
       <c r="E133" s="1"/>
       <c r="F133" s="1"/>
     </row>
-    <row r="134" spans="1:6" ht="15.75">
+    <row r="134" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D134" s="1"/>
       <c r="E134" s="1"/>
       <c r="F134" s="1"/>
     </row>
-    <row r="135" spans="1:6" ht="15.75">
+    <row r="135" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D135" s="1"/>
       <c r="E135" s="1"/>
       <c r="F135" s="1"/>
     </row>
-    <row r="136" spans="1:6" ht="15.75">
+    <row r="136" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>149</v>
+        <v>120</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>149</v>
+        <v>120</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D136" s="1"/>
       <c r="E136" s="1"/>
       <c r="F136" s="1"/>
     </row>
-    <row r="137" spans="1:6" ht="15.75">
+    <row r="137" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D137" s="1"/>
       <c r="E137" s="1"/>
       <c r="F137" s="1"/>
     </row>
-    <row r="138" spans="1:6" ht="15.75">
+    <row r="138" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D138" s="1"/>
       <c r="E138" s="1"/>
       <c r="F138" s="1"/>
     </row>
-    <row r="139" spans="1:6" ht="15.75">
+    <row r="139" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D139" s="1"/>
       <c r="E139" s="1"/>
       <c r="F139" s="1"/>
     </row>
-    <row r="140" spans="1:6" ht="15.75">
+    <row r="140" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>152</v>
+        <v>201</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>152</v>
+        <v>201</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D140" s="1"/>
       <c r="E140" s="1"/>
       <c r="F140" s="1"/>
     </row>
-    <row r="141" spans="1:6" ht="15.75">
+    <row r="141" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D141" s="1"/>
       <c r="E141" s="1"/>
       <c r="F141" s="1"/>
     </row>
-    <row r="142" spans="1:6" ht="15.75">
+    <row r="142" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D142" s="1"/>
       <c r="E142" s="1"/>
       <c r="F142" s="1"/>
     </row>
-    <row r="143" spans="1:6" ht="15.75">
+    <row r="143" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D143" s="1"/>
       <c r="E143" s="1"/>
       <c r="F143" s="1"/>
     </row>
-    <row r="144" spans="1:6" ht="15.75">
+    <row r="144" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>210</v>
+        <v>147</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>210</v>
+        <v>147</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>148</v>
@@ -4078,2098 +4057,2098 @@
       <c r="E144" s="1"/>
       <c r="F144" s="1"/>
     </row>
-    <row r="145" spans="1:6" ht="15.75">
+    <row r="145" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D145" s="1"/>
       <c r="E145" s="1"/>
       <c r="F145" s="1"/>
     </row>
-    <row r="146" spans="1:6" ht="15.75">
+    <row r="146" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D146" s="1"/>
       <c r="E146" s="1"/>
       <c r="F146" s="1"/>
     </row>
-    <row r="147" spans="1:6" ht="15.75">
+    <row r="147" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D147" s="1"/>
       <c r="E147" s="1"/>
       <c r="F147" s="1"/>
     </row>
-    <row r="148" spans="1:6" ht="15.75">
+    <row r="148" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D148" s="1"/>
       <c r="E148" s="1"/>
       <c r="F148" s="1"/>
     </row>
-    <row r="149" spans="1:6" ht="15.75">
+    <row r="149" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D149" s="1"/>
       <c r="E149" s="1"/>
       <c r="F149" s="1"/>
     </row>
-    <row r="150" spans="1:6" ht="15.75">
+    <row r="150" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D150" s="1"/>
       <c r="E150" s="1"/>
       <c r="F150" s="1"/>
     </row>
-    <row r="151" spans="1:6" ht="15.75">
+    <row r="151" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D151" s="1"/>
       <c r="E151" s="1"/>
       <c r="F151" s="1"/>
     </row>
-    <row r="152" spans="1:6" ht="15.75">
+    <row r="152" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="D152" s="1"/>
       <c r="E152" s="1"/>
       <c r="F152" s="1"/>
     </row>
-    <row r="153" spans="1:6" ht="15.75">
+    <row r="153" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="D153" s="1"/>
       <c r="E153" s="1"/>
       <c r="F153" s="1"/>
     </row>
-    <row r="154" spans="1:6" ht="15.75">
+    <row r="154" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="D154" s="1"/>
       <c r="E154" s="1"/>
       <c r="F154" s="1"/>
     </row>
-    <row r="155" spans="1:6" ht="15.75">
+    <row r="155" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>197</v>
+        <v>157</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>197</v>
+        <v>157</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="D155" s="1"/>
       <c r="E155" s="1"/>
       <c r="F155" s="1"/>
     </row>
-    <row r="156" spans="1:6" ht="15.75">
+    <row r="156" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="D156" s="1"/>
       <c r="E156" s="1"/>
       <c r="F156" s="1"/>
     </row>
-    <row r="157" spans="1:6" ht="15.75">
+    <row r="157" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="D157" s="1"/>
       <c r="E157" s="1"/>
       <c r="F157" s="1"/>
     </row>
-    <row r="158" spans="1:6" ht="15.75">
+    <row r="158" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="D158" s="1"/>
       <c r="E158" s="1"/>
       <c r="F158" s="1"/>
     </row>
-    <row r="159" spans="1:6" ht="15.75">
+    <row r="159" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="D159" s="1"/>
       <c r="E159" s="1"/>
       <c r="F159" s="1"/>
     </row>
-    <row r="160" spans="1:6" ht="15.75">
+    <row r="160" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>167</v>
+        <v>190</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>167</v>
+        <v>190</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="D160" s="1"/>
       <c r="E160" s="1"/>
       <c r="F160" s="1"/>
     </row>
-    <row r="161" spans="1:6" ht="15.75">
+    <row r="161" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="D161" s="1"/>
       <c r="E161" s="1"/>
       <c r="F161" s="1"/>
     </row>
-    <row r="162" spans="1:6" ht="15.75">
+    <row r="162" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>195</v>
+        <v>162</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>195</v>
+        <v>162</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="D162" s="1"/>
       <c r="E162" s="1"/>
       <c r="F162" s="1"/>
     </row>
-    <row r="163" spans="1:6" ht="15.75">
+    <row r="163" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="D163" s="1"/>
       <c r="E163" s="1"/>
       <c r="F163" s="1"/>
     </row>
-    <row r="164" spans="1:6" ht="15.75">
+    <row r="164" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="D164" s="1"/>
       <c r="E164" s="1"/>
       <c r="F164" s="1"/>
     </row>
-    <row r="165" spans="1:6" ht="15.75">
+    <row r="165" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="D165" s="1"/>
       <c r="E165" s="1"/>
       <c r="F165" s="1"/>
     </row>
-    <row r="166" spans="1:6" ht="15.75">
+    <row r="166" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="D166" s="1"/>
       <c r="E166" s="1"/>
       <c r="F166" s="1"/>
     </row>
-    <row r="167" spans="1:6" ht="15.75">
+    <row r="167" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="D167" s="1"/>
       <c r="E167" s="1"/>
       <c r="F167" s="1"/>
     </row>
-    <row r="168" spans="1:6" ht="15.75">
+    <row r="168" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="D168" s="1"/>
       <c r="E168" s="1"/>
       <c r="F168" s="1"/>
     </row>
-    <row r="169" spans="1:6" ht="15.75">
+    <row r="169" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="D169" s="1"/>
       <c r="E169" s="1"/>
       <c r="F169" s="1"/>
     </row>
-    <row r="170" spans="1:6" ht="15.75">
+    <row r="170" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="D170" s="1"/>
       <c r="E170" s="1"/>
       <c r="F170" s="1"/>
     </row>
-    <row r="171" spans="1:6" ht="15.75">
+    <row r="171" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="D171" s="1"/>
       <c r="E171" s="1"/>
       <c r="F171" s="1"/>
     </row>
-    <row r="172" spans="1:6" ht="15.75">
+    <row r="172" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="D172" s="1"/>
       <c r="E172" s="1"/>
       <c r="F172" s="1"/>
     </row>
-    <row r="173" spans="1:6" ht="15.75">
+    <row r="173" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="D173" s="1"/>
       <c r="E173" s="1"/>
       <c r="F173" s="1"/>
     </row>
-    <row r="174" spans="1:6" ht="15.75">
+    <row r="174" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="D174" s="1"/>
       <c r="E174" s="1"/>
       <c r="F174" s="1"/>
     </row>
-    <row r="175" spans="1:6" ht="15.75">
+    <row r="175" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="D175" s="1"/>
       <c r="E175" s="1"/>
       <c r="F175" s="1"/>
     </row>
-    <row r="176" spans="1:6" ht="15.75">
+    <row r="176" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
-        <v>182</v>
+        <v>157</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>182</v>
+        <v>157</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="D176" s="1"/>
       <c r="E176" s="1"/>
       <c r="F176" s="1"/>
     </row>
-    <row r="177" spans="1:6" ht="15.75">
+    <row r="177" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="D177" s="1"/>
       <c r="E177" s="1"/>
       <c r="F177" s="1"/>
     </row>
-    <row r="178" spans="1:6" ht="15.75">
+    <row r="178" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="D178" s="1"/>
       <c r="E178" s="1"/>
       <c r="F178" s="1"/>
     </row>
-    <row r="179" spans="1:6" ht="15.75">
+    <row r="179" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="D179" s="1"/>
       <c r="E179" s="1"/>
       <c r="F179" s="1"/>
     </row>
-    <row r="180" spans="1:6" ht="15.75">
+    <row r="180" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="D180" s="1"/>
       <c r="E180" s="1"/>
       <c r="F180" s="1"/>
     </row>
-    <row r="181" spans="1:6" ht="15.75">
+    <row r="181" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="D181" s="1"/>
       <c r="E181" s="1"/>
       <c r="F181" s="1"/>
     </row>
-    <row r="182" spans="1:6" ht="15.75">
+    <row r="182" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="D182" s="1"/>
       <c r="E182" s="1"/>
       <c r="F182" s="1"/>
     </row>
-    <row r="183" spans="1:6" ht="15.75">
+    <row r="183" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="D183" s="1"/>
       <c r="E183" s="1"/>
       <c r="F183" s="1"/>
     </row>
-    <row r="184" spans="1:6" ht="15.75">
+    <row r="184" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="D184" s="1"/>
       <c r="E184" s="1"/>
       <c r="F184" s="1"/>
     </row>
-    <row r="185" spans="1:6" ht="15.75">
+    <row r="185" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>191</v>
+        <v>205</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="D185" s="1"/>
       <c r="E185" s="1"/>
       <c r="F185" s="1"/>
     </row>
-    <row r="186" spans="1:6" ht="15.75">
+    <row r="186" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D186" s="1"/>
       <c r="E186" s="1"/>
       <c r="F186" s="1"/>
     </row>
-    <row r="187" spans="1:6" ht="15.75">
+    <row r="187" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D187" s="1"/>
       <c r="E187" s="1"/>
       <c r="F187" s="1"/>
     </row>
-    <row r="188" spans="1:6" ht="15.75">
+    <row r="188" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D188" s="1"/>
       <c r="E188" s="1"/>
       <c r="F188" s="1"/>
     </row>
-    <row r="189" spans="1:6" ht="15.75">
+    <row r="189" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D189" s="1"/>
       <c r="E189" s="1"/>
       <c r="F189" s="1"/>
     </row>
-    <row r="190" spans="1:6" ht="15.75">
+    <row r="190" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D190" s="1"/>
       <c r="E190" s="1"/>
       <c r="F190" s="1"/>
     </row>
-    <row r="191" spans="1:6" ht="15.75">
+    <row r="191" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D191" s="1"/>
       <c r="E191" s="1"/>
       <c r="F191" s="1"/>
     </row>
-    <row r="192" spans="1:6" ht="15.75">
+    <row r="192" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D192" s="1"/>
       <c r="E192" s="1"/>
       <c r="F192" s="1"/>
     </row>
-    <row r="193" spans="1:6" ht="15.75">
+    <row r="193" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D193" s="1"/>
       <c r="E193" s="1"/>
       <c r="F193" s="1"/>
     </row>
-    <row r="194" spans="1:6" ht="15.75">
+    <row r="194" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D194" s="1"/>
       <c r="E194" s="1"/>
       <c r="F194" s="1"/>
     </row>
-    <row r="195" spans="1:6" ht="15.75">
+    <row r="195" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D195" s="1"/>
       <c r="E195" s="1"/>
       <c r="F195" s="1"/>
     </row>
-    <row r="196" spans="1:6" ht="15.75">
+    <row r="196" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
-        <v>222</v>
+        <v>187</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>222</v>
+        <v>187</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D196" s="1"/>
       <c r="E196" s="1"/>
       <c r="F196" s="1"/>
     </row>
-    <row r="197" spans="1:6" ht="15.75">
+    <row r="197" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D197" s="1"/>
       <c r="E197" s="1"/>
       <c r="F197" s="1"/>
     </row>
-    <row r="198" spans="1:6" ht="15.75">
-      <c r="A198" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="B198" s="2" t="s">
-        <v>194</v>
+    <row r="198" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A198" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>217</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D198" s="1"/>
       <c r="E198" s="1"/>
       <c r="F198" s="1"/>
     </row>
-    <row r="199" spans="1:6" ht="15.75">
+    <row r="199" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D199" s="1"/>
       <c r="E199" s="1"/>
       <c r="F199" s="1"/>
     </row>
-    <row r="200" spans="1:6" ht="15.75">
+    <row r="200" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
-        <v>224</v>
+        <v>158</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>224</v>
+        <v>158</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D200" s="1"/>
       <c r="E200" s="1"/>
       <c r="F200" s="1"/>
     </row>
-    <row r="201" spans="1:6" ht="15.75">
+    <row r="201" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
-        <v>164</v>
+        <v>219</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>164</v>
+        <v>219</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D201" s="1"/>
       <c r="E201" s="1"/>
       <c r="F201" s="1"/>
     </row>
-    <row r="202" spans="1:6" ht="15.75">
+    <row r="202" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D202" s="1"/>
       <c r="E202" s="1"/>
       <c r="F202" s="1"/>
     </row>
-    <row r="203" spans="1:6" ht="15.75">
+    <row r="203" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D203" s="1"/>
       <c r="E203" s="1"/>
       <c r="F203" s="1"/>
     </row>
-    <row r="204" spans="1:6" ht="15.75">
+    <row r="204" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D204" s="1"/>
       <c r="E204" s="1"/>
       <c r="F204" s="1"/>
     </row>
-    <row r="205" spans="1:6" ht="15.75">
+    <row r="205" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D205" s="1"/>
       <c r="E205" s="1"/>
       <c r="F205" s="1"/>
     </row>
-    <row r="206" spans="1:6" ht="15.75">
+    <row r="206" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D206" s="1"/>
       <c r="E206" s="1"/>
       <c r="F206" s="1"/>
     </row>
-    <row r="207" spans="1:6" ht="15.75">
+    <row r="207" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
-        <v>230</v>
+        <v>167</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>230</v>
+        <v>167</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D207" s="1"/>
       <c r="E207" s="1"/>
       <c r="F207" s="1"/>
     </row>
-    <row r="208" spans="1:6" ht="15.75">
+    <row r="208" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
-        <v>173</v>
+        <v>225</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>173</v>
+        <v>225</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D208" s="1"/>
       <c r="E208" s="1"/>
       <c r="F208" s="1"/>
     </row>
-    <row r="209" spans="1:6" ht="15.75">
+    <row r="209" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D209" s="1"/>
       <c r="E209" s="1"/>
       <c r="F209" s="1"/>
     </row>
-    <row r="210" spans="1:6" ht="15.75">
+    <row r="210" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D210" s="1"/>
       <c r="E210" s="1"/>
       <c r="F210" s="1"/>
     </row>
-    <row r="211" spans="1:6" ht="15.75">
+    <row r="211" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D211" s="1"/>
       <c r="E211" s="1"/>
       <c r="F211" s="1"/>
     </row>
-    <row r="212" spans="1:6" ht="15.75">
+    <row r="212" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D212" s="1"/>
       <c r="E212" s="1"/>
       <c r="F212" s="1"/>
     </row>
-    <row r="213" spans="1:6" ht="15.75">
+    <row r="213" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D213" s="1"/>
       <c r="E213" s="1"/>
       <c r="F213" s="1"/>
     </row>
-    <row r="214" spans="1:6" ht="15.75">
+    <row r="214" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D214" s="1"/>
       <c r="E214" s="1"/>
       <c r="F214" s="1"/>
     </row>
-    <row r="215" spans="1:6" ht="15.75">
+    <row r="215" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D215" s="1"/>
       <c r="E215" s="1"/>
       <c r="F215" s="1"/>
     </row>
-    <row r="216" spans="1:6" ht="15.75">
+    <row r="216" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D216" s="1"/>
       <c r="E216" s="1"/>
       <c r="F216" s="1"/>
     </row>
-    <row r="217" spans="1:6" ht="15.75">
+    <row r="217" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D217" s="1"/>
       <c r="E217" s="1"/>
       <c r="F217" s="1"/>
     </row>
-    <row r="218" spans="1:6" ht="15.75">
+    <row r="218" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D218" s="1"/>
       <c r="E218" s="1"/>
       <c r="F218" s="1"/>
     </row>
-    <row r="219" spans="1:6" ht="15.75">
+    <row r="219" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D219" s="1"/>
       <c r="E219" s="1"/>
       <c r="F219" s="1"/>
     </row>
-    <row r="220" spans="1:6" ht="15.75">
+    <row r="220" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
-        <v>243</v>
+        <v>155</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>243</v>
+        <v>155</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>192</v>
+        <v>241</v>
       </c>
       <c r="D220" s="1"/>
       <c r="E220" s="1"/>
       <c r="F220" s="1"/>
     </row>
-    <row r="221" spans="1:6" ht="15.75">
+    <row r="221" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
-        <v>161</v>
+        <v>218</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>161</v>
+        <v>218</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="D221" s="1"/>
       <c r="E221" s="1"/>
       <c r="F221" s="1"/>
     </row>
-    <row r="222" spans="1:6" ht="15.75">
+    <row r="222" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
-        <v>224</v>
+        <v>205</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>224</v>
+        <v>205</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="D222" s="1"/>
       <c r="E222" s="1"/>
       <c r="F222" s="1"/>
     </row>
-    <row r="223" spans="1:6" ht="15.75">
+    <row r="223" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
-        <v>211</v>
+        <v>238</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>211</v>
+        <v>238</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="D223" s="1"/>
       <c r="E223" s="1"/>
       <c r="F223" s="1"/>
     </row>
-    <row r="224" spans="1:6" ht="15.75">
+    <row r="224" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="D224" s="1"/>
       <c r="E224" s="1"/>
       <c r="F224" s="1"/>
     </row>
-    <row r="225" spans="1:6" ht="15.75">
+    <row r="225" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
-        <v>245</v>
+        <v>211</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>245</v>
+        <v>211</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="D225" s="1"/>
       <c r="E225" s="1"/>
       <c r="F225" s="1"/>
     </row>
-    <row r="226" spans="1:6" ht="15.75">
+    <row r="226" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
-        <v>217</v>
+        <v>240</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>217</v>
+        <v>240</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="D226" s="1"/>
       <c r="E226" s="1"/>
       <c r="F226" s="1"/>
     </row>
-    <row r="227" spans="1:6" ht="15.75">
+    <row r="227" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="D227" s="1"/>
       <c r="E227" s="1"/>
       <c r="F227" s="1"/>
     </row>
-    <row r="228" spans="1:6" ht="15.75">
+    <row r="228" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="D228" s="1"/>
       <c r="E228" s="1"/>
       <c r="F228" s="1"/>
     </row>
-    <row r="229" spans="1:6" ht="15.75">
+    <row r="229" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="D229" s="1"/>
       <c r="E229" s="1"/>
       <c r="F229" s="1"/>
     </row>
-    <row r="230" spans="1:6" ht="15.75">
+    <row r="230" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="D230" s="1"/>
       <c r="E230" s="1"/>
       <c r="F230" s="1"/>
     </row>
-    <row r="231" spans="1:6" ht="15.75">
+    <row r="231" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="D231" s="1"/>
       <c r="E231" s="1"/>
       <c r="F231" s="1"/>
     </row>
-    <row r="232" spans="1:6" ht="15.75">
+    <row r="232" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="D232" s="1"/>
       <c r="E232" s="1"/>
       <c r="F232" s="1"/>
     </row>
-    <row r="233" spans="1:6" ht="15.75">
+    <row r="233" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
-        <v>253</v>
+        <v>219</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>253</v>
+        <v>219</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="D233" s="1"/>
       <c r="E233" s="1"/>
       <c r="F233" s="1"/>
     </row>
-    <row r="234" spans="1:6" ht="15.75">
+    <row r="234" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
-        <v>225</v>
+        <v>248</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>225</v>
+        <v>248</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="D234" s="1"/>
       <c r="E234" s="1"/>
       <c r="F234" s="1"/>
     </row>
-    <row r="235" spans="1:6" ht="15.75">
+    <row r="235" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="D235" s="1"/>
       <c r="E235" s="1"/>
       <c r="F235" s="1"/>
     </row>
-    <row r="236" spans="1:6" ht="15.75">
+    <row r="236" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
-        <v>255</v>
+        <v>236</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>255</v>
+        <v>236</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="D236" s="1"/>
       <c r="E236" s="1"/>
       <c r="F236" s="1"/>
     </row>
-    <row r="237" spans="1:6" ht="15.75">
+    <row r="237" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="D237" s="1"/>
       <c r="E237" s="1"/>
       <c r="F237" s="1"/>
     </row>
-    <row r="238" spans="1:6" ht="15.75">
+    <row r="238" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="D238" s="1"/>
       <c r="E238" s="1"/>
       <c r="F238" s="1"/>
     </row>
-    <row r="239" spans="1:6" ht="15.75">
+    <row r="239" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="D239" s="1"/>
       <c r="E239" s="1"/>
       <c r="F239" s="1"/>
     </row>
-    <row r="240" spans="1:6" ht="15.75">
+    <row r="240" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="D240" s="1"/>
       <c r="E240" s="1"/>
       <c r="F240" s="1"/>
     </row>
-    <row r="241" spans="1:6" ht="15.75">
+    <row r="241" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="D241" s="1"/>
       <c r="E241" s="1"/>
       <c r="F241" s="1"/>
     </row>
-    <row r="242" spans="1:6" ht="15.75">
+    <row r="242" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="D242" s="1"/>
       <c r="E242" s="1"/>
       <c r="F242" s="1"/>
     </row>
-    <row r="243" spans="1:6" ht="15.75">
+    <row r="243" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="D243" s="1"/>
       <c r="E243" s="1"/>
       <c r="F243" s="1"/>
     </row>
-    <row r="244" spans="1:6" ht="15.75">
+    <row r="244" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="D244" s="1"/>
       <c r="E244" s="1"/>
       <c r="F244" s="1"/>
     </row>
-    <row r="245" spans="1:6" ht="15.75">
+    <row r="245" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="D245" s="1"/>
       <c r="E245" s="1"/>
       <c r="F245" s="1"/>
     </row>
-    <row r="246" spans="1:6" ht="15.75">
+    <row r="246" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="D246" s="1"/>
       <c r="E246" s="1"/>
       <c r="F246" s="1"/>
     </row>
-    <row r="247" spans="1:6" ht="15.75">
+    <row r="247" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="D247" s="1"/>
       <c r="E247" s="1"/>
       <c r="F247" s="1"/>
     </row>
-    <row r="248" spans="1:6" ht="15.75">
+    <row r="248" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
-        <v>266</v>
+        <v>233</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>266</v>
+        <v>233</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="D248" s="1"/>
       <c r="E248" s="1"/>
       <c r="F248" s="1"/>
     </row>
-    <row r="249" spans="1:6" ht="15.75">
+    <row r="249" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
-        <v>239</v>
+        <v>261</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>239</v>
+        <v>261</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="D249" s="1"/>
       <c r="E249" s="1"/>
       <c r="F249" s="1"/>
     </row>
-    <row r="250" spans="1:6" ht="15.75">
+    <row r="250" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C250" s="1" t="s">
         <v>267</v>
-      </c>
-      <c r="B250" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="C250" s="1" t="s">
-        <v>247</v>
       </c>
       <c r="D250" s="1"/>
       <c r="E250" s="1"/>
       <c r="F250" s="1"/>
     </row>
-    <row r="251" spans="1:6" ht="15.75">
+    <row r="251" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="D251" s="1"/>
       <c r="E251" s="1"/>
       <c r="F251" s="1"/>
     </row>
-    <row r="252" spans="1:6" ht="15.75">
+    <row r="252" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="D252" s="1"/>
       <c r="E252" s="1"/>
       <c r="F252" s="1"/>
     </row>
-    <row r="253" spans="1:6" ht="15.75">
+    <row r="253" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="D253" s="1"/>
       <c r="E253" s="1"/>
       <c r="F253" s="1"/>
     </row>
-    <row r="254" spans="1:6" ht="15.75">
+    <row r="254" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="D254" s="1"/>
       <c r="E254" s="1"/>
       <c r="F254" s="1"/>
     </row>
-    <row r="255" spans="1:6" ht="15.75">
+    <row r="255" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="D255" s="1"/>
       <c r="E255" s="1"/>
       <c r="F255" s="1"/>
     </row>
-    <row r="256" spans="1:6" ht="15.75">
+    <row r="256" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="D256" s="1"/>
       <c r="E256" s="1"/>
       <c r="F256" s="1"/>
     </row>
-    <row r="257" spans="1:6" ht="15.75">
+    <row r="257" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="D257" s="1"/>
       <c r="E257" s="1"/>
       <c r="F257" s="1"/>
     </row>
-    <row r="258" spans="1:6" ht="15.75">
+    <row r="258" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="D258" s="1"/>
       <c r="E258" s="1"/>
       <c r="F258" s="1"/>
     </row>
-    <row r="259" spans="1:6" ht="15.75">
+    <row r="259" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
-        <v>277</v>
+        <v>158</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>277</v>
+        <v>158</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="D259" s="1"/>
       <c r="E259" s="1"/>
       <c r="F259" s="1"/>
     </row>
-    <row r="260" spans="1:6" ht="15.75">
+    <row r="260" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
-        <v>164</v>
+        <v>272</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>164</v>
+        <v>272</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="D260" s="1"/>
       <c r="E260" s="1"/>
       <c r="F260" s="1"/>
     </row>
-    <row r="261" spans="1:6" ht="15.75">
+    <row r="261" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="D261" s="1"/>
       <c r="E261" s="1"/>
       <c r="F261" s="1"/>
     </row>
-    <row r="262" spans="1:6" ht="15.75">
+    <row r="262" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="D262" s="1"/>
       <c r="E262" s="1"/>
       <c r="F262" s="1"/>
     </row>
-    <row r="263" spans="1:6" ht="15.75">
+    <row r="263" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="D263" s="1"/>
       <c r="E263" s="1"/>
       <c r="F263" s="1"/>
     </row>
-    <row r="264" spans="1:6" ht="15.75">
+    <row r="264" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="D264" s="1"/>
       <c r="E264" s="1"/>
       <c r="F264" s="1"/>
     </row>
-    <row r="265" spans="1:6" ht="15.75">
+    <row r="265" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="D265" s="1"/>
       <c r="E265" s="1"/>
       <c r="F265" s="1"/>
     </row>
-    <row r="266" spans="1:6" ht="15.75">
+    <row r="266" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
-        <v>283</v>
+        <v>225</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>283</v>
+        <v>225</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="D266" s="1"/>
       <c r="E266" s="1"/>
       <c r="F266" s="1"/>
     </row>
-    <row r="267" spans="1:6" ht="15.75">
+    <row r="267" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
-        <v>231</v>
+        <v>278</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>231</v>
+        <v>278</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="D267" s="1"/>
       <c r="E267" s="1"/>
       <c r="F267" s="1"/>
     </row>
-    <row r="268" spans="1:6" ht="15.75">
+    <row r="268" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
-        <v>284</v>
+        <v>229</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>284</v>
+        <v>229</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="D268" s="1"/>
       <c r="E268" s="1"/>
       <c r="F268" s="1"/>
     </row>
-    <row r="269" spans="1:6" ht="15.75">
+    <row r="269" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
-        <v>235</v>
+        <v>279</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>235</v>
+        <v>279</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="D269" s="1"/>
       <c r="E269" s="1"/>
       <c r="F269" s="1"/>
     </row>
-    <row r="270" spans="1:6" ht="15.75">
+    <row r="270" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="D270" s="1"/>
       <c r="E270" s="1"/>
       <c r="F270" s="1"/>
     </row>
-    <row r="271" spans="1:6" ht="15.75">
+    <row r="271" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="D271" s="1"/>
       <c r="E271" s="1"/>
       <c r="F271" s="1"/>
     </row>
-    <row r="272" spans="1:6" ht="15.75">
+    <row r="272" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="D272" s="1"/>
       <c r="E272" s="1"/>
       <c r="F272" s="1"/>
     </row>
-    <row r="273" spans="1:6" ht="15.75">
+    <row r="273" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="D273" s="1"/>
       <c r="E273" s="1"/>
       <c r="F273" s="1"/>
     </row>
-    <row r="274" spans="1:6" ht="15.75">
+    <row r="274" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="D274" s="1"/>
       <c r="E274" s="1"/>
       <c r="F274" s="1"/>
     </row>
-    <row r="275" spans="1:6" ht="15.75">
+    <row r="275" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="D275" s="1"/>
       <c r="E275" s="1"/>
       <c r="F275" s="1"/>
     </row>
-    <row r="276" spans="1:6" ht="15.75">
+    <row r="276" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="D276" s="1"/>
       <c r="E276" s="1"/>
       <c r="F276" s="1"/>
     </row>
-    <row r="277" spans="1:6" ht="15.75">
+    <row r="277" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="D277" s="1"/>
       <c r="E277" s="1"/>
       <c r="F277" s="1"/>
     </row>
-    <row r="278" spans="1:6" ht="15.75">
+    <row r="278" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="D278" s="1"/>
       <c r="E278" s="1"/>
       <c r="F278" s="1"/>
     </row>
-    <row r="279" spans="1:6" ht="15.75">
+    <row r="279" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="D279" s="1"/>
       <c r="E279" s="1"/>
       <c r="F279" s="1"/>
     </row>
-    <row r="280" spans="1:6" ht="15.75">
+    <row r="280" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
-        <v>295</v>
+        <v>223</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>295</v>
+        <v>223</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="D280" s="1"/>
       <c r="E280" s="1"/>
       <c r="F280" s="1"/>
     </row>
-    <row r="281" spans="1:6" ht="15.75">
+    <row r="281" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
-        <v>229</v>
+        <v>290</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>229</v>
+        <v>290</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="D281" s="1"/>
       <c r="E281" s="1"/>
       <c r="F281" s="1"/>
     </row>
-    <row r="282" spans="1:6" ht="15.75">
+    <row r="282" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="D282" s="1"/>
       <c r="E282" s="1"/>
       <c r="F282" s="1"/>
     </row>
-    <row r="283" spans="1:6" ht="15.75">
+    <row r="283" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
-        <v>297</v>
+        <v>245</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>297</v>
+        <v>245</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>273</v>
+        <v>292</v>
       </c>
       <c r="D283" s="1"/>
       <c r="E283" s="1"/>
       <c r="F283" s="1"/>
     </row>
-    <row r="284" spans="1:6" ht="15.75">
+    <row r="284" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
-        <v>251</v>
+        <v>218</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>251</v>
+        <v>218</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D284" s="1"/>
       <c r="E284" s="1"/>
       <c r="F284" s="1"/>
     </row>
-    <row r="285" spans="1:6" ht="15.75">
+    <row r="285" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
-        <v>224</v>
+        <v>244</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>224</v>
+        <v>244</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D285" s="1"/>
       <c r="E285" s="1"/>
       <c r="F285" s="1"/>
     </row>
-    <row r="286" spans="1:6" ht="15.75">
+    <row r="286" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
-        <v>250</v>
+        <v>293</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>250</v>
+        <v>293</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D286" s="1"/>
       <c r="E286" s="1"/>
       <c r="F286" s="1"/>
     </row>
-    <row r="287" spans="1:6" ht="15.75">
+    <row r="287" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
-        <v>299</v>
+        <v>208</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>299</v>
+        <v>208</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D287" s="1"/>
       <c r="E287" s="1"/>
       <c r="F287" s="1"/>
     </row>
-    <row r="288" spans="1:6" ht="15.75">
+    <row r="288" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
-        <v>214</v>
+        <v>250</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>214</v>
+        <v>250</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D288" s="1"/>
       <c r="E288" s="1"/>
       <c r="F288" s="1"/>
     </row>
-    <row r="289" spans="1:6" ht="15.75">
+    <row r="289" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
-        <v>256</v>
+        <v>294</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>256</v>
+        <v>294</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D289" s="1"/>
       <c r="E289" s="1"/>
       <c r="F289" s="1"/>
     </row>
-    <row r="290" spans="1:6" ht="15.75">
+    <row r="290" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D290" s="1"/>
       <c r="E290" s="1"/>
       <c r="F290" s="1"/>
     </row>
-    <row r="291" spans="1:6" ht="15.75">
+    <row r="291" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D291" s="1"/>
       <c r="E291" s="1"/>
       <c r="F291" s="1"/>
     </row>
-    <row r="292" spans="1:6" ht="15.75">
+    <row r="292" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
-        <v>302</v>
+        <v>233</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>302</v>
+        <v>233</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D292" s="1"/>
       <c r="E292" s="1"/>
       <c r="F292" s="1"/>
     </row>
-    <row r="293" spans="1:6" ht="15.75">
+    <row r="293" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
-        <v>239</v>
+        <v>297</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>239</v>
+        <v>297</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D293" s="1"/>
       <c r="E293" s="1"/>
       <c r="F293" s="1"/>
     </row>
-    <row r="294" spans="1:6" ht="15.75">
+    <row r="294" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="C294" s="1" t="s">
         <v>298</v>
@@ -6178,7 +6157,7 @@
       <c r="E294" s="1"/>
       <c r="F294" s="1"/>
     </row>
-    <row r="295" spans="1:6" ht="15.75">
+    <row r="295" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
         <v>299</v>
       </c>
@@ -6186,2593 +6165,2591 @@
         <v>299</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="D295" s="1"/>
       <c r="E295" s="1"/>
       <c r="F295" s="1"/>
     </row>
-    <row r="296" spans="1:6" ht="15.75">
+    <row r="296" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="D296" s="1"/>
       <c r="E296" s="1"/>
       <c r="F296" s="1"/>
     </row>
-    <row r="297" spans="1:6" ht="15.75">
+    <row r="297" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="C297" s="1" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="D297" s="1"/>
       <c r="E297" s="1"/>
       <c r="F297" s="1"/>
     </row>
-    <row r="298" spans="1:6" ht="15.75">
+    <row r="298" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="D298" s="1"/>
       <c r="E298" s="1"/>
       <c r="F298" s="1"/>
     </row>
-    <row r="299" spans="1:6" ht="15.75">
+    <row r="299" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="D299" s="1"/>
       <c r="E299" s="1"/>
       <c r="F299" s="1"/>
     </row>
-    <row r="300" spans="1:6" ht="15.75">
+    <row r="300" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="D300" s="1"/>
       <c r="E300" s="1"/>
       <c r="F300" s="1"/>
     </row>
-    <row r="301" spans="1:6" ht="15.75">
+    <row r="301" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="D301" s="1"/>
       <c r="E301" s="1"/>
       <c r="F301" s="1"/>
     </row>
-    <row r="302" spans="1:6" ht="15.75">
+    <row r="302" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="D302" s="1"/>
       <c r="E302" s="1"/>
       <c r="F302" s="1"/>
     </row>
-    <row r="303" spans="1:6" ht="15.75">
+    <row r="303" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="D303" s="1"/>
       <c r="E303" s="1"/>
       <c r="F303" s="1"/>
     </row>
-    <row r="304" spans="1:6" ht="15.75">
+    <row r="304" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
-        <v>313</v>
+        <v>294</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>313</v>
+        <v>294</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="D304" s="1"/>
       <c r="E304" s="1"/>
       <c r="F304" s="1"/>
     </row>
-    <row r="305" spans="1:6" ht="15.75">
+    <row r="305" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="D305" s="1"/>
       <c r="E305" s="1"/>
       <c r="F305" s="1"/>
     </row>
-    <row r="306" spans="1:6" ht="15.75">
+    <row r="306" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
-        <v>314</v>
+        <v>240</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>314</v>
+        <v>240</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="D306" s="1"/>
       <c r="E306" s="1"/>
       <c r="F306" s="1"/>
     </row>
-    <row r="307" spans="1:6" ht="15.75">
+    <row r="307" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
-        <v>246</v>
+        <v>206</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>246</v>
+        <v>206</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="D307" s="1"/>
       <c r="E307" s="1"/>
       <c r="F307" s="1"/>
     </row>
-    <row r="308" spans="1:6" ht="15.75">
+    <row r="308" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="D308" s="1"/>
       <c r="E308" s="1"/>
       <c r="F308" s="1"/>
     </row>
-    <row r="309" spans="1:6" ht="15.75">
+    <row r="309" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
-        <v>215</v>
+        <v>310</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>215</v>
+        <v>310</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="D309" s="1"/>
       <c r="E309" s="1"/>
       <c r="F309" s="1"/>
     </row>
-    <row r="310" spans="1:6" ht="15.75">
+    <row r="310" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="D310" s="1"/>
       <c r="E310" s="1"/>
       <c r="F310" s="1"/>
     </row>
-    <row r="311" spans="1:6" ht="15.75">
+    <row r="311" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="D311" s="1"/>
       <c r="E311" s="1"/>
       <c r="F311" s="1"/>
     </row>
-    <row r="312" spans="1:6" ht="15.75">
+    <row r="312" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
-        <v>318</v>
+        <v>244</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>318</v>
+        <v>244</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="D312" s="1"/>
       <c r="E312" s="1"/>
       <c r="F312" s="1"/>
     </row>
-    <row r="313" spans="1:6" ht="15.75">
+    <row r="313" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="D313" s="1"/>
       <c r="E313" s="1"/>
       <c r="F313" s="1"/>
     </row>
-    <row r="314" spans="1:6" ht="15.75">
+    <row r="314" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
-        <v>251</v>
+        <v>188</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>251</v>
+        <v>188</v>
       </c>
       <c r="C314" s="1" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="D314" s="1"/>
       <c r="E314" s="1"/>
       <c r="F314" s="1"/>
     </row>
-    <row r="315" spans="1:6" ht="15.75">
+    <row r="315" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A315" s="1" t="s">
-        <v>194</v>
+        <v>313</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>194</v>
+        <v>313</v>
       </c>
       <c r="C315" s="1" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="D315" s="1"/>
       <c r="E315" s="1"/>
       <c r="F315" s="1"/>
     </row>
-    <row r="316" spans="1:6" ht="15.75">
+    <row r="316" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
-        <v>319</v>
+        <v>219</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>319</v>
+        <v>219</v>
       </c>
       <c r="C316" s="1" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="D316" s="1"/>
       <c r="E316" s="1"/>
       <c r="F316" s="1"/>
     </row>
-    <row r="317" spans="1:6" ht="15.75">
+    <row r="317" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
-        <v>225</v>
+        <v>314</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>225</v>
+        <v>314</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="D317" s="1"/>
       <c r="E317" s="1"/>
       <c r="F317" s="1"/>
     </row>
-    <row r="318" spans="1:6" ht="15.75">
+    <row r="318" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A318" s="1" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="D318" s="1"/>
       <c r="E318" s="1"/>
       <c r="F318" s="1"/>
     </row>
-    <row r="319" spans="1:6" ht="15.75">
+    <row r="319" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="C319" s="1" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="D319" s="1"/>
       <c r="E319" s="1"/>
       <c r="F319" s="1"/>
     </row>
-    <row r="320" spans="1:6" ht="15.75">
+    <row r="320" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="D320" s="1"/>
       <c r="E320" s="1"/>
       <c r="F320" s="1"/>
     </row>
-    <row r="321" spans="1:6" ht="15.75">
+    <row r="321" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A321" s="1" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="C321" s="1" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="D321" s="1"/>
       <c r="E321" s="1"/>
       <c r="F321" s="1"/>
     </row>
-    <row r="322" spans="1:6" ht="15.75">
+    <row r="322" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="C322" s="1" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="D322" s="1"/>
       <c r="E322" s="1"/>
       <c r="F322" s="1"/>
     </row>
-    <row r="323" spans="1:6" ht="15.75">
+    <row r="323" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A323" s="1" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="C323" s="1" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="D323" s="1"/>
       <c r="E323" s="1"/>
       <c r="F323" s="1"/>
     </row>
-    <row r="324" spans="1:6" ht="15.75">
+    <row r="324" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A324" s="1" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="C324" s="1" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="D324" s="1"/>
       <c r="E324" s="1"/>
       <c r="F324" s="1"/>
     </row>
-    <row r="325" spans="1:6" ht="15.75">
+    <row r="325" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A325" s="1" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="C325" s="1" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="D325" s="1"/>
       <c r="E325" s="1"/>
       <c r="F325" s="1"/>
     </row>
-    <row r="326" spans="1:6" ht="15.75">
+    <row r="326" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A326" s="1" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="C326" s="1" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="D326" s="1"/>
       <c r="E326" s="1"/>
       <c r="F326" s="1"/>
     </row>
-    <row r="327" spans="1:6" ht="15.75">
+    <row r="327" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A327" s="1" t="s">
-        <v>329</v>
+        <v>259</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>329</v>
+        <v>259</v>
       </c>
       <c r="C327" s="1" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="D327" s="1"/>
       <c r="E327" s="1"/>
       <c r="F327" s="1"/>
     </row>
-    <row r="328" spans="1:6" ht="15.75">
+    <row r="328" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A328" s="1" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="C328" s="1" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="D328" s="1"/>
       <c r="E328" s="1"/>
       <c r="F328" s="1"/>
     </row>
-    <row r="329" spans="1:6" ht="15.75">
+    <row r="329" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A329" s="1" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="C329" s="1" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="D329" s="1"/>
       <c r="E329" s="1"/>
       <c r="F329" s="1"/>
     </row>
-    <row r="330" spans="1:6" ht="15.75">
+    <row r="330" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A330" s="1" t="s">
-        <v>260</v>
+        <v>324</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>260</v>
+        <v>324</v>
       </c>
       <c r="C330" s="1" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="D330" s="1"/>
       <c r="E330" s="1"/>
       <c r="F330" s="1"/>
     </row>
-    <row r="331" spans="1:6" ht="15.75">
+    <row r="331" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A331" s="1" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="C331" s="1" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="D331" s="1"/>
       <c r="E331" s="1"/>
       <c r="F331" s="1"/>
     </row>
-    <row r="332" spans="1:6" ht="15.75">
+    <row r="332" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="C332" s="1" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="D332" s="1"/>
       <c r="E332" s="1"/>
       <c r="F332" s="1"/>
     </row>
-    <row r="333" spans="1:6" ht="15.75">
+    <row r="333" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A333" s="1" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="D333" s="1"/>
       <c r="E333" s="1"/>
       <c r="F333" s="1"/>
     </row>
-    <row r="334" spans="1:6" ht="15.75">
+    <row r="334" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="C334" s="1" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="D334" s="1"/>
       <c r="E334" s="1"/>
       <c r="F334" s="1"/>
     </row>
-    <row r="335" spans="1:6" ht="15.75">
+    <row r="335" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C335" s="1" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="D335" s="1"/>
       <c r="E335" s="1"/>
       <c r="F335" s="1"/>
     </row>
-    <row r="336" spans="1:6" ht="15.75">
+    <row r="336" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A336" s="1" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="C336" s="1" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="D336" s="1"/>
       <c r="E336" s="1"/>
       <c r="F336" s="1"/>
     </row>
-    <row r="337" spans="1:6" ht="15.75">
+    <row r="337" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A337" s="1" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="C337" s="1" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="D337" s="1"/>
       <c r="E337" s="1"/>
       <c r="F337" s="1"/>
     </row>
-    <row r="338" spans="1:6" ht="15.75">
+    <row r="338" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A338" s="1" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="C338" s="1" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="D338" s="1"/>
       <c r="E338" s="1"/>
       <c r="F338" s="1"/>
     </row>
-    <row r="339" spans="1:6" ht="15.75">
+    <row r="339" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A339" s="1" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="C339" s="1" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="D339" s="1"/>
       <c r="E339" s="1"/>
       <c r="F339" s="1"/>
     </row>
-    <row r="340" spans="1:6" ht="15.75">
+    <row r="340" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A340" s="1" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="C340" s="1" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="D340" s="1"/>
       <c r="E340" s="1"/>
       <c r="F340" s="1"/>
     </row>
-    <row r="341" spans="1:6" ht="15.75">
+    <row r="341" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A341" s="1" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="C341" s="1" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="D341" s="1"/>
       <c r="E341" s="1"/>
       <c r="F341" s="1"/>
     </row>
-    <row r="342" spans="1:6" ht="15.75">
+    <row r="342" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A342" s="1" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="C342" s="1" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="D342" s="1"/>
       <c r="E342" s="1"/>
       <c r="F342" s="1"/>
     </row>
-    <row r="343" spans="1:6" ht="15.75">
+    <row r="343" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A343" s="1" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="C343" s="1" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="D343" s="1"/>
       <c r="E343" s="1"/>
       <c r="F343" s="1"/>
     </row>
-    <row r="344" spans="1:6" ht="15.75">
+    <row r="344" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A344" s="1" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="C344" s="1" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="D344" s="1"/>
       <c r="E344" s="1"/>
       <c r="F344" s="1"/>
     </row>
-    <row r="345" spans="1:6" ht="15.75">
+    <row r="345" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A345" s="1" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="C345" s="1" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="D345" s="1"/>
       <c r="E345" s="1"/>
       <c r="F345" s="1"/>
     </row>
-    <row r="346" spans="1:6" ht="15.75">
+    <row r="346" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A346" s="1" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="C346" s="1" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="D346" s="1"/>
       <c r="E346" s="1"/>
       <c r="F346" s="1"/>
     </row>
-    <row r="347" spans="1:6" ht="15.75">
+    <row r="347" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A347" s="1" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="C347" s="1" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="D347" s="1"/>
       <c r="E347" s="1"/>
       <c r="F347" s="1"/>
     </row>
-    <row r="348" spans="1:6" ht="15.75">
+    <row r="348" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A348" s="1" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="C348" s="1" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="D348" s="1"/>
       <c r="E348" s="1"/>
       <c r="F348" s="1"/>
     </row>
-    <row r="349" spans="1:6" ht="15.75">
+    <row r="349" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A349" s="1" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="C349" s="1" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="D349" s="1"/>
       <c r="E349" s="1"/>
       <c r="F349" s="1"/>
     </row>
-    <row r="350" spans="1:6" ht="15.75">
+    <row r="350" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A350" s="1" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="C350" s="1" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="D350" s="1"/>
       <c r="E350" s="1"/>
       <c r="F350" s="1"/>
     </row>
-    <row r="351" spans="1:6" ht="15.75">
+    <row r="351" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A351" s="1" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="C351" s="1" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="D351" s="1"/>
       <c r="E351" s="1"/>
       <c r="F351" s="1"/>
     </row>
-    <row r="352" spans="1:6" ht="15.75">
+    <row r="352" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A352" s="1" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="C352" s="1" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="D352" s="1"/>
       <c r="E352" s="1"/>
       <c r="F352" s="1"/>
     </row>
-    <row r="353" spans="1:6" ht="15.75">
+    <row r="353" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A353" s="1" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="C353" s="1" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="D353" s="1"/>
       <c r="E353" s="1"/>
       <c r="F353" s="1"/>
     </row>
-    <row r="354" spans="1:6" ht="15.75">
+    <row r="354" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A354" s="1" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="C354" s="1" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="D354" s="1"/>
       <c r="E354" s="1"/>
       <c r="F354" s="1"/>
     </row>
-    <row r="355" spans="1:6" ht="15.75">
+    <row r="355" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A355" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C355" s="1" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="D355" s="1"/>
       <c r="E355" s="1"/>
       <c r="F355" s="1"/>
     </row>
-    <row r="356" spans="1:6" ht="15.75">
+    <row r="356" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A356" s="1" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="C356" s="1" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="D356" s="1"/>
       <c r="E356" s="1"/>
       <c r="F356" s="1"/>
     </row>
-    <row r="357" spans="1:6" ht="15.75">
+    <row r="357" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A357" s="1" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="C357" s="1" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="D357" s="1"/>
       <c r="E357" s="1"/>
       <c r="F357" s="1"/>
     </row>
-    <row r="358" spans="1:6" ht="15.75">
+    <row r="358" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A358" s="1" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C358" s="1" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="D358" s="1"/>
       <c r="E358" s="1"/>
       <c r="F358" s="1"/>
     </row>
-    <row r="359" spans="1:6" ht="15.75">
+    <row r="359" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A359" s="1" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="C359" s="1" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="D359" s="1"/>
       <c r="E359" s="1"/>
       <c r="F359" s="1"/>
     </row>
-    <row r="360" spans="1:6" ht="15.75">
+    <row r="360" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A360" s="1" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="C360" s="1" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="D360" s="1"/>
       <c r="E360" s="1"/>
       <c r="F360" s="1"/>
     </row>
-    <row r="361" spans="1:6" ht="15.75">
+    <row r="361" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A361" s="1" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="C361" s="1" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="D361" s="1"/>
       <c r="E361" s="1"/>
       <c r="F361" s="1"/>
     </row>
-    <row r="362" spans="1:6" ht="15.75">
+    <row r="362" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A362" s="1" t="s">
-        <v>362</v>
+        <v>180</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>362</v>
+        <v>180</v>
       </c>
       <c r="C362" s="1" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="D362" s="1"/>
       <c r="E362" s="1"/>
       <c r="F362" s="1"/>
     </row>
-    <row r="363" spans="1:6" ht="15.75">
+    <row r="363" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A363" s="1" t="s">
-        <v>186</v>
+        <v>357</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>186</v>
+        <v>357</v>
       </c>
       <c r="C363" s="1" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="D363" s="1"/>
       <c r="E363" s="1"/>
       <c r="F363" s="1"/>
     </row>
-    <row r="364" spans="1:6" ht="15.75">
+    <row r="364" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A364" s="1" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="C364" s="1" t="s">
-        <v>335</v>
+        <v>359</v>
       </c>
       <c r="D364" s="1"/>
       <c r="E364" s="1"/>
       <c r="F364" s="1"/>
     </row>
-    <row r="365" spans="1:6" ht="15.75">
+    <row r="365" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A365" s="1" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="C365" s="1" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="D365" s="1"/>
       <c r="E365" s="1"/>
       <c r="F365" s="1"/>
     </row>
-    <row r="366" spans="1:6" ht="15.75">
+    <row r="366" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A366" s="1" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="C366" s="1" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="D366" s="1"/>
       <c r="E366" s="1"/>
       <c r="F366" s="1"/>
     </row>
-    <row r="367" spans="1:6" ht="15.75">
+    <row r="367" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A367" s="1" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="C367" s="1" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="D367" s="1"/>
       <c r="E367" s="1"/>
       <c r="F367" s="1"/>
     </row>
-    <row r="368" spans="1:6" ht="15.75">
+    <row r="368" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A368" s="1" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="C368" s="1" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="D368" s="1"/>
       <c r="E368" s="1"/>
       <c r="F368" s="1"/>
     </row>
-    <row r="369" spans="1:6" ht="15.75">
+    <row r="369" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A369" s="1" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="C369" s="1" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="D369" s="1"/>
       <c r="E369" s="1"/>
       <c r="F369" s="1"/>
     </row>
-    <row r="370" spans="1:6" ht="15.75">
+    <row r="370" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A370" s="1" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="C370" s="1" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="D370" s="1"/>
       <c r="E370" s="1"/>
       <c r="F370" s="1"/>
     </row>
-    <row r="371" spans="1:6" ht="15.75">
+    <row r="371" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A371" s="1" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="C371" s="1" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="D371" s="1"/>
       <c r="E371" s="1"/>
       <c r="F371" s="1"/>
     </row>
-    <row r="372" spans="1:6" ht="15.75">
+    <row r="372" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A372" s="1" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="C372" s="1" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="D372" s="1"/>
       <c r="E372" s="1"/>
       <c r="F372" s="1"/>
     </row>
-    <row r="373" spans="1:6" ht="15.75">
+    <row r="373" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A373" s="1" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="C373" s="1" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="D373" s="1"/>
       <c r="E373" s="1"/>
       <c r="F373" s="1"/>
     </row>
-    <row r="374" spans="1:6" ht="15.75">
+    <row r="374" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A374" s="1" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="C374" s="1" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="D374" s="1"/>
       <c r="E374" s="1"/>
       <c r="F374" s="1"/>
     </row>
-    <row r="375" spans="1:6" ht="15.75">
+    <row r="375" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A375" s="1" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="C375" s="1" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="D375" s="1"/>
       <c r="E375" s="1"/>
       <c r="F375" s="1"/>
     </row>
-    <row r="376" spans="1:6" ht="15.75">
+    <row r="376" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A376" s="1" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="C376" s="1" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="D376" s="1"/>
       <c r="E376" s="1"/>
       <c r="F376" s="1"/>
     </row>
-    <row r="377" spans="1:6" ht="15.75">
+    <row r="377" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A377" s="1" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="C377" s="1" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="D377" s="1"/>
       <c r="E377" s="1"/>
       <c r="F377" s="1"/>
     </row>
-    <row r="378" spans="1:6" ht="15.75">
+    <row r="378" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A378" s="1" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="C378" s="1" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="D378" s="1"/>
       <c r="E378" s="1"/>
       <c r="F378" s="1"/>
     </row>
-    <row r="379" spans="1:6" ht="15.75">
+    <row r="379" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A379" s="1" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="B379" s="1" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="C379" s="1" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="D379" s="1"/>
       <c r="E379" s="1"/>
       <c r="F379" s="1"/>
     </row>
-    <row r="380" spans="1:6" ht="15.75">
+    <row r="380" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A380" s="1" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="C380" s="1" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="D380" s="1"/>
       <c r="E380" s="1"/>
       <c r="F380" s="1"/>
     </row>
-    <row r="381" spans="1:6" ht="15.75">
+    <row r="381" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A381" s="1" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="B381" s="1" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="C381" s="1" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="D381" s="1"/>
       <c r="E381" s="1"/>
       <c r="F381" s="1"/>
     </row>
-    <row r="382" spans="1:6" ht="15.75">
+    <row r="382" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A382" s="1" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="C382" s="1" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="D382" s="1"/>
       <c r="E382" s="1"/>
       <c r="F382" s="1"/>
     </row>
-    <row r="383" spans="1:6" ht="15.75">
+    <row r="383" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A383" s="1" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="B383" s="1" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="C383" s="1" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="D383" s="1"/>
       <c r="E383" s="1"/>
       <c r="F383" s="1"/>
     </row>
-    <row r="384" spans="1:6" ht="15.75">
+    <row r="384" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A384" s="1" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="B384" s="1" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="C384" s="1" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="D384" s="1"/>
       <c r="E384" s="1"/>
       <c r="F384" s="1"/>
     </row>
-    <row r="385" spans="1:6" ht="15.75">
+    <row r="385" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A385" s="1" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="B385" s="1" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="C385" s="1" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="D385" s="1"/>
       <c r="E385" s="1"/>
       <c r="F385" s="1"/>
     </row>
-    <row r="386" spans="1:6" ht="15.75">
+    <row r="386" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A386" s="1" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="B386" s="1" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="C386" s="1" t="s">
-        <v>365</v>
+        <v>382</v>
       </c>
       <c r="D386" s="1"/>
       <c r="E386" s="1"/>
       <c r="F386" s="1"/>
     </row>
-    <row r="387" spans="1:6" ht="15.75">
+    <row r="387" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A387" s="1" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="B387" s="1" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="C387" s="1" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="D387" s="1"/>
       <c r="E387" s="1"/>
       <c r="F387" s="1"/>
     </row>
-    <row r="388" spans="1:6" ht="15.75">
+    <row r="388" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A388" s="1" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="B388" s="1" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="C388" s="1" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="D388" s="1"/>
       <c r="E388" s="1"/>
       <c r="F388" s="1"/>
     </row>
-    <row r="389" spans="1:6" ht="15.75">
+    <row r="389" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A389" s="1" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="B389" s="1" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="C389" s="1" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="D389" s="1"/>
       <c r="E389" s="1"/>
       <c r="F389" s="1"/>
     </row>
-    <row r="390" spans="1:6" ht="15.75">
+    <row r="390" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A390" s="1" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="B390" s="1" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="C390" s="1" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="D390" s="1"/>
       <c r="E390" s="1"/>
       <c r="F390" s="1"/>
     </row>
-    <row r="391" spans="1:6" ht="15.75">
+    <row r="391" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A391" s="1" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="B391" s="1" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="C391" s="1" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="D391" s="1"/>
       <c r="E391" s="1"/>
       <c r="F391" s="1"/>
     </row>
-    <row r="392" spans="1:6" ht="15.75">
+    <row r="392" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A392" s="1" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="B392" s="1" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="C392" s="1" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="D392" s="1"/>
       <c r="E392" s="1"/>
       <c r="F392" s="1"/>
     </row>
-    <row r="393" spans="1:6" ht="15.75">
+    <row r="393" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A393" s="1" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="B393" s="1" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="C393" s="1" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="D393" s="1"/>
       <c r="E393" s="1"/>
       <c r="F393" s="1"/>
     </row>
-    <row r="394" spans="1:6" ht="15.75">
+    <row r="394" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A394" s="1" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="B394" s="1" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="C394" s="1" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="D394" s="1"/>
       <c r="E394" s="1"/>
       <c r="F394" s="1"/>
     </row>
-    <row r="395" spans="1:6" ht="15.75">
+    <row r="395" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A395" s="1" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="B395" s="1" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="C395" s="1" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="D395" s="1"/>
       <c r="E395" s="1"/>
       <c r="F395" s="1"/>
     </row>
-    <row r="396" spans="1:6" ht="15.75">
+    <row r="396" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A396" s="1" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="B396" s="1" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="C396" s="1" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="D396" s="1"/>
       <c r="E396" s="1"/>
       <c r="F396" s="1"/>
     </row>
-    <row r="397" spans="1:6" ht="15.75">
+    <row r="397" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A397" s="1" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="B397" s="1" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="C397" s="1" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="D397" s="1"/>
       <c r="E397" s="1"/>
       <c r="F397" s="1"/>
     </row>
-    <row r="398" spans="1:6" ht="15.75">
+    <row r="398" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A398" s="1" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="C398" s="1" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="D398" s="1"/>
       <c r="E398" s="1"/>
       <c r="F398" s="1"/>
     </row>
-    <row r="399" spans="1:6" ht="15.75">
+    <row r="399" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A399" s="1" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="B399" s="1" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="C399" s="1" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="D399" s="1"/>
       <c r="E399" s="1"/>
       <c r="F399" s="1"/>
     </row>
-    <row r="400" spans="1:6" ht="15.75">
+    <row r="400" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A400" s="1" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B400" s="1" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="C400" s="1" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="D400" s="1"/>
       <c r="E400" s="1"/>
       <c r="F400" s="1"/>
     </row>
-    <row r="401" spans="1:6" ht="15.75">
+    <row r="401" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A401" s="1" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="B401" s="1" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="C401" s="1" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="D401" s="1"/>
       <c r="E401" s="1"/>
       <c r="F401" s="1"/>
     </row>
-    <row r="402" spans="1:6" ht="15.75">
+    <row r="402" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A402" s="1" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="B402" s="1" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="C402" s="1" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="D402" s="1"/>
       <c r="E402" s="1"/>
       <c r="F402" s="1"/>
     </row>
-    <row r="403" spans="1:6" ht="15.75">
+    <row r="403" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A403" s="1" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="B403" s="1" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="C403" s="1" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="D403" s="1"/>
       <c r="E403" s="1"/>
       <c r="F403" s="1"/>
     </row>
-    <row r="404" spans="1:6" ht="15.75">
+    <row r="404" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A404" s="1" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="B404" s="1" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="C404" s="1" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="D404" s="1"/>
       <c r="E404" s="1"/>
       <c r="F404" s="1"/>
     </row>
-    <row r="405" spans="1:6" ht="15.75">
+    <row r="405" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A405" s="1" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="B405" s="1" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="C405" s="1" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="D405" s="1"/>
       <c r="E405" s="1"/>
       <c r="F405" s="1"/>
     </row>
-    <row r="406" spans="1:6" ht="15.75">
+    <row r="406" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A406" s="1" t="s">
-        <v>407</v>
+        <v>233</v>
       </c>
       <c r="B406" s="1" t="s">
-        <v>407</v>
+        <v>233</v>
       </c>
       <c r="C406" s="1" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="D406" s="1"/>
       <c r="E406" s="1"/>
       <c r="F406" s="1"/>
     </row>
-    <row r="407" spans="1:6" ht="15.75">
+    <row r="407" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A407" s="1" t="s">
-        <v>239</v>
+        <v>402</v>
       </c>
       <c r="B407" s="1" t="s">
-        <v>239</v>
+        <v>402</v>
       </c>
       <c r="C407" s="1" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="D407" s="1"/>
       <c r="E407" s="1"/>
       <c r="F407" s="1"/>
     </row>
-    <row r="408" spans="1:6" ht="15.75">
+    <row r="408" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A408" s="1" t="s">
-        <v>408</v>
+        <v>258</v>
       </c>
       <c r="B408" s="1" t="s">
-        <v>408</v>
+        <v>258</v>
       </c>
       <c r="C408" s="1" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="D408" s="1"/>
       <c r="E408" s="1"/>
       <c r="F408" s="1"/>
     </row>
-    <row r="409" spans="1:6" ht="15.75">
+    <row r="409" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A409" s="1" t="s">
-        <v>264</v>
+        <v>403</v>
       </c>
       <c r="B409" s="1" t="s">
-        <v>264</v>
+        <v>403</v>
       </c>
       <c r="C409" s="1" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="D409" s="1"/>
       <c r="E409" s="1"/>
       <c r="F409" s="1"/>
     </row>
-    <row r="410" spans="1:6" ht="15.75">
+    <row r="410" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A410" s="1" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="B410" s="1" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="C410" s="1" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="D410" s="1"/>
       <c r="E410" s="1"/>
       <c r="F410" s="1"/>
     </row>
-    <row r="411" spans="1:6" ht="15.75">
+    <row r="411" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A411" s="1" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="B411" s="1" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="C411" s="1" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="D411" s="1"/>
       <c r="E411" s="1"/>
       <c r="F411" s="1"/>
     </row>
-    <row r="412" spans="1:6" ht="15.75">
+    <row r="412" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A412" s="1" t="s">
-        <v>411</v>
+        <v>99</v>
       </c>
       <c r="B412" s="1" t="s">
-        <v>411</v>
+        <v>99</v>
       </c>
       <c r="C412" s="1" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="D412" s="1"/>
       <c r="E412" s="1"/>
       <c r="F412" s="1"/>
     </row>
-    <row r="413" spans="1:6" ht="15.75">
+    <row r="413" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A413" s="1" t="s">
-        <v>105</v>
+        <v>406</v>
       </c>
       <c r="B413" s="1" t="s">
-        <v>105</v>
+        <v>406</v>
       </c>
       <c r="C413" s="1" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="D413" s="1"/>
       <c r="E413" s="1"/>
       <c r="F413" s="1"/>
     </row>
-    <row r="414" spans="1:6" ht="15.75">
+    <row r="414" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A414" s="1" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="B414" s="1" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="C414" s="1" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="D414" s="1"/>
       <c r="E414" s="1"/>
       <c r="F414" s="1"/>
     </row>
-    <row r="415" spans="1:6" ht="15.75">
+    <row r="415" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A415" s="1" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="B415" s="1" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="C415" s="1" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="D415" s="1"/>
       <c r="E415" s="1"/>
       <c r="F415" s="1"/>
     </row>
-    <row r="416" spans="1:6" ht="15.75">
+    <row r="416" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A416" s="1" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="B416" s="1" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="C416" s="1" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="D416" s="1"/>
       <c r="E416" s="1"/>
       <c r="F416" s="1"/>
     </row>
-    <row r="417" spans="1:6" ht="15.75">
+    <row r="417" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A417" s="1" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="B417" s="1" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="C417" s="1" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="D417" s="1"/>
       <c r="E417" s="1"/>
       <c r="F417" s="1"/>
     </row>
-    <row r="418" spans="1:6" ht="15.75">
+    <row r="418" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A418" s="1" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="B418" s="1" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="C418" s="1" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="D418" s="1"/>
       <c r="E418" s="1"/>
       <c r="F418" s="1"/>
     </row>
-    <row r="419" spans="1:6" ht="15.75">
+    <row r="419" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A419" s="1" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="B419" s="1" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="C419" s="1" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="D419" s="1"/>
       <c r="E419" s="1"/>
       <c r="F419" s="1"/>
     </row>
-    <row r="420" spans="1:6" ht="15.75">
+    <row r="420" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A420" s="1" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="B420" s="1" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="C420" s="1" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="D420" s="1"/>
       <c r="E420" s="1"/>
       <c r="F420" s="1"/>
     </row>
-    <row r="421" spans="1:6" ht="15.75">
+    <row r="421" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A421" s="1" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="B421" s="1" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="C421" s="1" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="D421" s="1"/>
       <c r="E421" s="1"/>
       <c r="F421" s="1"/>
     </row>
-    <row r="422" spans="1:6" ht="15.75">
+    <row r="422" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A422" s="1" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="B422" s="1" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="C422" s="1" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="D422" s="1"/>
       <c r="E422" s="1"/>
       <c r="F422" s="1"/>
     </row>
-    <row r="423" spans="1:6" ht="15.75">
+    <row r="423" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A423" s="1" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="B423" s="1" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="C423" s="1" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="D423" s="1"/>
       <c r="E423" s="1"/>
       <c r="F423" s="1"/>
     </row>
-    <row r="424" spans="1:6" ht="15.75">
+    <row r="424" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A424" s="1" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="B424" s="1" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="C424" s="1" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="D424" s="1"/>
       <c r="E424" s="1"/>
       <c r="F424" s="1"/>
     </row>
-    <row r="425" spans="1:6" ht="15.75">
+    <row r="425" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A425" s="1" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="B425" s="1" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="C425" s="1" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="D425" s="1"/>
       <c r="E425" s="1"/>
       <c r="F425" s="1"/>
     </row>
-    <row r="426" spans="1:6" ht="15.75">
+    <row r="426" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A426" s="1" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="B426" s="1" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="C426" s="1" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="D426" s="1"/>
       <c r="E426" s="1"/>
       <c r="F426" s="1"/>
     </row>
-    <row r="427" spans="1:6" ht="15.75">
+    <row r="427" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A427" s="1" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="B427" s="1" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="C427" s="1" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="D427" s="1"/>
       <c r="E427" s="1"/>
       <c r="F427" s="1"/>
     </row>
-    <row r="428" spans="1:6" ht="15.75">
+    <row r="428" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A428" s="1" t="s">
-        <v>426</v>
+        <v>353</v>
       </c>
       <c r="B428" s="1" t="s">
-        <v>426</v>
+        <v>353</v>
       </c>
       <c r="C428" s="1" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="D428" s="1"/>
       <c r="E428" s="1"/>
       <c r="F428" s="1"/>
     </row>
-    <row r="429" spans="1:6" ht="15.75">
+    <row r="429" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A429" s="1" t="s">
-        <v>359</v>
+        <v>180</v>
       </c>
       <c r="B429" s="1" t="s">
-        <v>359</v>
+        <v>180</v>
       </c>
       <c r="C429" s="1" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="D429" s="1"/>
       <c r="E429" s="1"/>
       <c r="F429" s="1"/>
     </row>
-    <row r="430" spans="1:6" ht="15.75">
+    <row r="430" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A430" s="1" t="s">
-        <v>186</v>
+        <v>354</v>
       </c>
       <c r="B430" s="1" t="s">
-        <v>186</v>
+        <v>354</v>
       </c>
       <c r="C430" s="1" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="D430" s="1"/>
       <c r="E430" s="1"/>
       <c r="F430" s="1"/>
     </row>
-    <row r="431" spans="1:6" ht="15.75">
+    <row r="431" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A431" s="1" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="B431" s="1" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="C431" s="1" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="D431" s="1"/>
       <c r="E431" s="1"/>
       <c r="F431" s="1"/>
     </row>
-    <row r="432" spans="1:6" ht="15.75">
+    <row r="432" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A432" s="1" t="s">
-        <v>361</v>
+        <v>421</v>
       </c>
       <c r="B432" s="1" t="s">
-        <v>361</v>
+        <v>421</v>
       </c>
       <c r="C432" s="1" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="D432" s="1"/>
       <c r="E432" s="1"/>
       <c r="F432" s="1"/>
     </row>
-    <row r="433" spans="1:6" ht="15.75">
+    <row r="433" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A433" s="1" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="B433" s="1" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="C433" s="1" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="D433" s="1"/>
       <c r="E433" s="1"/>
       <c r="F433" s="1"/>
     </row>
-    <row r="434" spans="1:6" ht="15.75">
+    <row r="434" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A434" s="1" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="B434" s="1" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="C434" s="1" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="D434" s="1"/>
       <c r="E434" s="1"/>
       <c r="F434" s="1"/>
     </row>
-    <row r="435" spans="1:6" ht="15.75">
+    <row r="435" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A435" s="1" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="B435" s="1" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="C435" s="1" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="D435" s="1"/>
       <c r="E435" s="1"/>
       <c r="F435" s="1"/>
     </row>
-    <row r="436" spans="1:6" ht="15.75">
+    <row r="436" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A436" s="1" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="B436" s="1" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="C436" s="1" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="D436" s="1"/>
       <c r="E436" s="1"/>
       <c r="F436" s="1"/>
     </row>
-    <row r="437" spans="1:6" ht="15.75">
+    <row r="437" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A437" s="1" t="s">
-        <v>431</v>
+        <v>356</v>
       </c>
       <c r="B437" s="1" t="s">
-        <v>431</v>
+        <v>356</v>
       </c>
       <c r="C437" s="1" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="D437" s="1"/>
       <c r="E437" s="1"/>
       <c r="F437" s="1"/>
     </row>
-    <row r="438" spans="1:6" ht="15.75">
+    <row r="438" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A438" s="1" t="s">
-        <v>362</v>
+        <v>427</v>
       </c>
       <c r="B438" s="1" t="s">
-        <v>362</v>
+        <v>427</v>
       </c>
       <c r="C438" s="1" t="s">
-        <v>388</v>
+        <v>426</v>
       </c>
       <c r="D438" s="1"/>
       <c r="E438" s="1"/>
       <c r="F438" s="1"/>
     </row>
-    <row r="439" spans="1:6" ht="15.75">
+    <row r="439" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A439" s="1" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="B439" s="1" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="C439" s="1" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="D439" s="1"/>
       <c r="E439" s="1"/>
       <c r="F439" s="1"/>
     </row>
-    <row r="440" spans="1:6" ht="15.75">
+    <row r="440" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A440" s="1" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="B440" s="1" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="C440" s="1" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="D440" s="1"/>
       <c r="E440" s="1"/>
       <c r="F440" s="1"/>
     </row>
-    <row r="441" spans="1:6" ht="15.75">
+    <row r="441" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A441" s="1" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="B441" s="1" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="C441" s="1" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="D441" s="1"/>
       <c r="E441" s="1"/>
       <c r="F441" s="1"/>
     </row>
-    <row r="442" spans="1:6" ht="15.75">
+    <row r="442" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A442" s="1" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="B442" s="1" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="C442" s="1" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="D442" s="1"/>
       <c r="E442" s="1"/>
       <c r="F442" s="1"/>
     </row>
-    <row r="443" spans="1:6" ht="15.75">
+    <row r="443" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A443" s="1" t="s">
-        <v>437</v>
+        <v>381</v>
       </c>
       <c r="B443" s="1" t="s">
-        <v>437</v>
+        <v>381</v>
       </c>
       <c r="C443" s="1" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="D443" s="1"/>
       <c r="E443" s="1"/>
       <c r="F443" s="1"/>
     </row>
-    <row r="444" spans="1:6" ht="15.75">
+    <row r="444" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A444" s="1" t="s">
-        <v>387</v>
+        <v>432</v>
       </c>
       <c r="B444" s="1" t="s">
-        <v>387</v>
+        <v>432</v>
       </c>
       <c r="C444" s="1" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="D444" s="1"/>
       <c r="E444" s="1"/>
       <c r="F444" s="1"/>
     </row>
-    <row r="445" spans="1:6" ht="15.75">
+    <row r="445" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A445" s="1" t="s">
-        <v>438</v>
+        <v>384</v>
       </c>
       <c r="B445" s="1" t="s">
-        <v>438</v>
+        <v>384</v>
       </c>
       <c r="C445" s="1" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="D445" s="1"/>
       <c r="E445" s="1"/>
       <c r="F445" s="1"/>
     </row>
-    <row r="446" spans="1:6" ht="15.75">
+    <row r="446" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A446" s="1" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="B446" s="1" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="C446" s="1" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="D446" s="1"/>
       <c r="E446" s="1"/>
       <c r="F446" s="1"/>
     </row>
-    <row r="447" spans="1:6" ht="15.75">
+    <row r="447" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A447" s="1" t="s">
-        <v>389</v>
+        <v>433</v>
       </c>
       <c r="B447" s="1" t="s">
-        <v>389</v>
+        <v>433</v>
       </c>
       <c r="C447" s="1" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="D447" s="1"/>
       <c r="E447" s="1"/>
       <c r="F447" s="1"/>
     </row>
-    <row r="448" spans="1:6" ht="15.75">
+    <row r="448" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A448" s="1" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="B448" s="1" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="C448" s="1" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="D448" s="1"/>
       <c r="E448" s="1"/>
       <c r="F448" s="1"/>
     </row>
-    <row r="449" spans="1:6" ht="15.75">
+    <row r="449" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A449" s="1" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="B449" s="1" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="C449" s="1" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="D449" s="1"/>
       <c r="E449" s="1"/>
       <c r="F449" s="1"/>
     </row>
-    <row r="450" spans="1:6" ht="15.75">
+    <row r="450" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A450" s="1" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="B450" s="1" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="C450" s="1" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="D450" s="1"/>
       <c r="E450" s="1"/>
       <c r="F450" s="1"/>
     </row>
-    <row r="451" spans="1:6" ht="15.75">
+    <row r="451" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A451" s="1" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="B451" s="1" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="C451" s="1" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="D451" s="1"/>
       <c r="E451" s="1"/>
       <c r="F451" s="1"/>
     </row>
-    <row r="452" spans="1:6" ht="15.75">
+    <row r="452" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A452" s="1" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="B452" s="1" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="C452" s="1" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="D452" s="1"/>
       <c r="E452" s="1"/>
       <c r="F452" s="1"/>
     </row>
-    <row r="453" spans="1:6" ht="15.75">
+    <row r="453" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A453" s="1" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="B453" s="1" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="C453" s="1" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="D453" s="1"/>
       <c r="E453" s="1"/>
       <c r="F453" s="1"/>
     </row>
-    <row r="454" spans="1:6" ht="15.75">
+    <row r="454" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A454" s="1" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="B454" s="1" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="C454" s="1" t="s">
-        <v>432</v>
+        <v>441</v>
       </c>
       <c r="D454" s="1"/>
       <c r="E454" s="1"/>
       <c r="F454" s="1"/>
     </row>
-    <row r="455" spans="1:6" ht="15.75">
+    <row r="455" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A455" s="1" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="B455" s="1" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="C455" s="1" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="D455" s="1"/>
       <c r="E455" s="1"/>
       <c r="F455" s="1"/>
     </row>
-    <row r="456" spans="1:6" ht="15.75">
+    <row r="456" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A456" s="1" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="B456" s="1" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="C456" s="1" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="D456" s="1"/>
       <c r="E456" s="1"/>
       <c r="F456" s="1"/>
     </row>
-    <row r="457" spans="1:6" ht="15.75">
+    <row r="457" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A457" s="1" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="B457" s="1" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="C457" s="1" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="D457" s="1"/>
       <c r="E457" s="1"/>
       <c r="F457" s="1"/>
     </row>
-    <row r="458" spans="1:6" ht="15.75">
+    <row r="458" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A458" s="1" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="B458" s="1" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="C458" s="1" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="D458" s="1"/>
       <c r="E458" s="1"/>
       <c r="F458" s="1"/>
     </row>
-    <row r="459" spans="1:6" ht="15.75">
+    <row r="459" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A459" s="1" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="B459" s="1" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="C459" s="1" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="D459" s="1"/>
       <c r="E459" s="1"/>
       <c r="F459" s="1"/>
     </row>
-    <row r="460" spans="1:6" ht="15.75">
+    <row r="460" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A460" s="1" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="B460" s="1" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="C460" s="1" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="D460" s="1"/>
       <c r="E460" s="1"/>
       <c r="F460" s="1"/>
     </row>
-    <row r="461" spans="1:6" ht="15.75">
+    <row r="461" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A461" s="1" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="B461" s="1" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="C461" s="1" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="D461" s="1"/>
       <c r="E461" s="1"/>
       <c r="F461" s="1"/>
     </row>
-    <row r="462" spans="1:6" ht="15.75">
+    <row r="462" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A462" s="1" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="B462" s="1" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="C462" s="1" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="D462" s="1"/>
       <c r="E462" s="1"/>
       <c r="F462" s="1"/>
     </row>
-    <row r="463" spans="1:6" ht="15.75">
+    <row r="463" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A463" s="1" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="B463" s="1" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="C463" s="1" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="D463" s="1"/>
       <c r="E463" s="1"/>
       <c r="F463" s="1"/>
     </row>
-    <row r="464" spans="1:6" ht="15.75">
+    <row r="464" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A464" s="1" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="B464" s="1" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="C464" s="1" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="D464" s="1"/>
       <c r="E464" s="1"/>
       <c r="F464" s="1"/>
     </row>
-    <row r="465" spans="1:6" ht="15.75">
+    <row r="465" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A465" s="1" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="B465" s="1" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="C465" s="1" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="D465" s="1"/>
       <c r="E465" s="1"/>
       <c r="F465" s="1"/>
     </row>
-    <row r="466" spans="1:6" ht="15.75">
+    <row r="466" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A466" s="1" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="B466" s="1" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="C466" s="1" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="D466" s="1"/>
       <c r="E466" s="1"/>
       <c r="F466" s="1"/>
     </row>
-    <row r="467" spans="1:6" ht="15.75">
+    <row r="467" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A467" s="1" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="B467" s="1" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="C467" s="1" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="D467" s="1"/>
       <c r="E467" s="1"/>
       <c r="F467" s="1"/>
     </row>
-    <row r="468" spans="1:6" ht="15.75">
+    <row r="468" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A468" s="1" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="B468" s="1" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="C468" s="1" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="D468" s="1"/>
       <c r="E468" s="1"/>
       <c r="F468" s="1"/>
     </row>
-    <row r="469" spans="1:6" ht="15.75">
+    <row r="469" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A469" s="1" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="B469" s="1" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="C469" s="1" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="D469" s="1"/>
       <c r="E469" s="1"/>
       <c r="F469" s="1"/>
     </row>
-    <row r="470" spans="1:6" ht="15.75">
+    <row r="470" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A470" s="1" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="B470" s="1" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="C470" s="1" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="D470" s="1"/>
       <c r="E470" s="1"/>
       <c r="F470" s="1"/>
     </row>
-    <row r="471" spans="1:6" ht="15.75">
+    <row r="471" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A471" s="1" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="B471" s="1" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="C471" s="1" t="s">
-        <v>447</v>
+        <v>459</v>
       </c>
       <c r="D471" s="1"/>
       <c r="E471" s="1"/>
       <c r="F471" s="1"/>
     </row>
-    <row r="472" spans="1:6" ht="15.75">
+    <row r="472" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A472" s="1" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="B472" s="1" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="C472" s="1" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="D472" s="1"/>
       <c r="E472" s="1"/>
       <c r="F472" s="1"/>
     </row>
-    <row r="473" spans="1:6" ht="15.75">
+    <row r="473" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A473" s="1" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="B473" s="1" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="C473" s="1" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="D473" s="1"/>
       <c r="E473" s="1"/>
       <c r="F473" s="1"/>
     </row>
-    <row r="474" spans="1:6" ht="15.75">
+    <row r="474" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A474" s="1" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="B474" s="1" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="C474" s="1" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="D474" s="1"/>
       <c r="E474" s="1"/>
       <c r="F474" s="1"/>
     </row>
-    <row r="475" spans="1:6" ht="15.75">
+    <row r="475" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A475" s="1" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="B475" s="1" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="C475" s="1" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="D475" s="1"/>
       <c r="E475" s="1"/>
       <c r="F475" s="1"/>
     </row>
-    <row r="476" spans="1:6" ht="15.75">
+    <row r="476" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A476" s="1" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="B476" s="1" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="C476" s="1" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="D476" s="1"/>
       <c r="E476" s="1"/>
       <c r="F476" s="1"/>
     </row>
-    <row r="477" spans="1:6" ht="15.75">
+    <row r="477" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A477" s="1" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="B477" s="1" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="C477" s="1" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="D477" s="1"/>
       <c r="E477" s="1"/>
       <c r="F477" s="1"/>
     </row>
-    <row r="478" spans="1:6" ht="15.75">
+    <row r="478" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A478" s="1" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="B478" s="1" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="C478" s="1" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="D478" s="1"/>
       <c r="E478" s="1"/>
       <c r="F478" s="1"/>
     </row>
-    <row r="479" spans="1:6" ht="15.75">
-      <c r="A479" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="B479" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="C479" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="D479" s="1"/>
-      <c r="E479" s="1"/>
-      <c r="F479" s="1"/>
-    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E32" r:id="rId1" tooltip="Parle Agro" display="https://en.wikipedia.org/wiki/Parle_Agro"/>
+    <hyperlink ref="E31" r:id="rId1" tooltip="Parle Agro" display="https://en.wikipedia.org/wiki/Parle_Agro"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/testapp/src/main/resources/defaults/swadeshi_list.xlsx
+++ b/testapp/src/main/resources/defaults/swadeshi_list.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1527" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2868" uniqueCount="468">
   <si>
     <t>Coca Cola</t>
   </si>
@@ -1420,6 +1420,9 @@
   </si>
   <si>
     <t>Hindustan Motors</t>
+  </si>
+  <si>
+    <t>Unknown</t>
   </si>
 </sst>
 </file>
@@ -1843,8 +1846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F478"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="A458" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32:F478"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1853,6 +1856,7 @@
     <col min="3" max="3" width="19" customWidth="1"/>
     <col min="4" max="4" width="19.28515625" customWidth="1"/>
     <col min="5" max="5" width="26.5703125" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -2485,9 +2489,15 @@
       <c r="C32" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
+      <c r="D32" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="33" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
@@ -2499,9 +2509,15 @@
       <c r="C33" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
+      <c r="D33" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="34" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
@@ -2513,9 +2529,15 @@
       <c r="C34" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
+      <c r="D34" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="35" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
@@ -2527,9 +2549,15 @@
       <c r="C35" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
+      <c r="D35" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="36" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
@@ -2541,9 +2569,15 @@
       <c r="C36" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
+      <c r="D36" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="37" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
@@ -2555,9 +2589,15 @@
       <c r="C37" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
+      <c r="D37" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="38" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
@@ -2569,9 +2609,15 @@
       <c r="C38" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
+      <c r="D38" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="39" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
@@ -2583,9 +2629,15 @@
       <c r="C39" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
+      <c r="D39" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="40" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
@@ -2597,9 +2649,15 @@
       <c r="C40" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
+      <c r="D40" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="41" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
@@ -2611,9 +2669,15 @@
       <c r="C41" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
+      <c r="D41" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="42" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
@@ -2625,9 +2689,15 @@
       <c r="C42" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
+      <c r="D42" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="43" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
@@ -2639,9 +2709,15 @@
       <c r="C43" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
+      <c r="D43" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="44" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
@@ -2653,9 +2729,15 @@
       <c r="C44" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
+      <c r="D44" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="45" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
@@ -2667,9 +2749,15 @@
       <c r="C45" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
+      <c r="D45" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="46" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
@@ -2681,9 +2769,15 @@
       <c r="C46" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
+      <c r="D46" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="47" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
@@ -2695,9 +2789,15 @@
       <c r="C47" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
+      <c r="D47" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="48" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
@@ -2709,9 +2809,15 @@
       <c r="C48" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
+      <c r="D48" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="49" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
@@ -2723,9 +2829,15 @@
       <c r="C49" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
+      <c r="D49" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="50" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
@@ -2737,9 +2849,15 @@
       <c r="C50" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
+      <c r="D50" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="51" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
@@ -2751,9 +2869,15 @@
       <c r="C51" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
+      <c r="D51" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="52" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
@@ -2765,9 +2889,15 @@
       <c r="C52" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
+      <c r="D52" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="53" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
@@ -2779,9 +2909,15 @@
       <c r="C53" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
+      <c r="D53" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="54" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
@@ -2793,9 +2929,15 @@
       <c r="C54" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
+      <c r="D54" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="55" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
@@ -2807,9 +2949,15 @@
       <c r="C55" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
+      <c r="D55" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="56" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
@@ -2821,9 +2969,15 @@
       <c r="C56" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
+      <c r="D56" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="57" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
@@ -2835,9 +2989,15 @@
       <c r="C57" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
+      <c r="D57" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="58" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
@@ -2849,9 +3009,15 @@
       <c r="C58" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
-      <c r="F58" s="1"/>
+      <c r="D58" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="59" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
@@ -2863,9 +3029,15 @@
       <c r="C59" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
-      <c r="F59" s="1"/>
+      <c r="D59" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="60" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
@@ -2877,9 +3049,15 @@
       <c r="C60" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
-      <c r="F60" s="1"/>
+      <c r="D60" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="61" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
@@ -2891,9 +3069,15 @@
       <c r="C61" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
-      <c r="F61" s="1"/>
+      <c r="D61" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="62" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
@@ -2905,9 +3089,15 @@
       <c r="C62" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
-      <c r="F62" s="1"/>
+      <c r="D62" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="63" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
@@ -2919,9 +3109,15 @@
       <c r="C63" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
-      <c r="F63" s="1"/>
+      <c r="D63" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="64" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
@@ -2933,9 +3129,15 @@
       <c r="C64" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
-      <c r="F64" s="1"/>
+      <c r="D64" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="65" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
@@ -2947,9 +3149,15 @@
       <c r="C65" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
-      <c r="F65" s="1"/>
+      <c r="D65" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="66" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
@@ -2961,9 +3169,15 @@
       <c r="C66" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
-      <c r="F66" s="1"/>
+      <c r="D66" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="67" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
@@ -2975,9 +3189,15 @@
       <c r="C67" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
-      <c r="F67" s="1"/>
+      <c r="D67" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="68" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
@@ -2989,9 +3209,15 @@
       <c r="C68" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
-      <c r="F68" s="1"/>
+      <c r="D68" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="69" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
@@ -3003,9 +3229,15 @@
       <c r="C69" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D69" s="1"/>
-      <c r="E69" s="1"/>
-      <c r="F69" s="1"/>
+      <c r="D69" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="70" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
@@ -3017,9 +3249,15 @@
       <c r="C70" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D70" s="1"/>
-      <c r="E70" s="1"/>
-      <c r="F70" s="1"/>
+      <c r="D70" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="71" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
@@ -3031,9 +3269,15 @@
       <c r="C71" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D71" s="1"/>
-      <c r="E71" s="1"/>
-      <c r="F71" s="1"/>
+      <c r="D71" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="72" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
@@ -3045,9 +3289,15 @@
       <c r="C72" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D72" s="1"/>
-      <c r="E72" s="1"/>
-      <c r="F72" s="1"/>
+      <c r="D72" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="73" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
@@ -3059,9 +3309,15 @@
       <c r="C73" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D73" s="1"/>
-      <c r="E73" s="1"/>
-      <c r="F73" s="1"/>
+      <c r="D73" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="74" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
@@ -3073,9 +3329,15 @@
       <c r="C74" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D74" s="1"/>
-      <c r="E74" s="1"/>
-      <c r="F74" s="1"/>
+      <c r="D74" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="75" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
@@ -3087,9 +3349,15 @@
       <c r="C75" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D75" s="1"/>
-      <c r="E75" s="1"/>
-      <c r="F75" s="1"/>
+      <c r="D75" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="76" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
@@ -3101,9 +3369,15 @@
       <c r="C76" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D76" s="1"/>
-      <c r="E76" s="1"/>
-      <c r="F76" s="1"/>
+      <c r="D76" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="77" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
@@ -3115,9 +3389,15 @@
       <c r="C77" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D77" s="1"/>
-      <c r="E77" s="1"/>
-      <c r="F77" s="1"/>
+      <c r="D77" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="78" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
@@ -3129,9 +3409,15 @@
       <c r="C78" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D78" s="1"/>
-      <c r="E78" s="1"/>
-      <c r="F78" s="1"/>
+      <c r="D78" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="79" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
@@ -3143,9 +3429,15 @@
       <c r="C79" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D79" s="1"/>
-      <c r="E79" s="1"/>
-      <c r="F79" s="1"/>
+      <c r="D79" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="80" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
@@ -3157,9 +3449,15 @@
       <c r="C80" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D80" s="1"/>
-      <c r="E80" s="1"/>
-      <c r="F80" s="1"/>
+      <c r="D80" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="81" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
@@ -3171,9 +3469,15 @@
       <c r="C81" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D81" s="1"/>
-      <c r="E81" s="1"/>
-      <c r="F81" s="1"/>
+      <c r="D81" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="82" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
@@ -3185,9 +3489,15 @@
       <c r="C82" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D82" s="1"/>
-      <c r="E82" s="1"/>
-      <c r="F82" s="1"/>
+      <c r="D82" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="83" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
@@ -3199,9 +3509,15 @@
       <c r="C83" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D83" s="1"/>
-      <c r="E83" s="1"/>
-      <c r="F83" s="1"/>
+      <c r="D83" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="84" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
@@ -3213,9 +3529,15 @@
       <c r="C84" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D84" s="1"/>
-      <c r="E84" s="1"/>
-      <c r="F84" s="1"/>
+      <c r="D84" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="85" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
@@ -3227,9 +3549,15 @@
       <c r="C85" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D85" s="1"/>
-      <c r="E85" s="1"/>
-      <c r="F85" s="1"/>
+      <c r="D85" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="86" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
@@ -3241,9 +3569,15 @@
       <c r="C86" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D86" s="1"/>
-      <c r="E86" s="1"/>
-      <c r="F86" s="1"/>
+      <c r="D86" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="87" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
@@ -3255,9 +3589,15 @@
       <c r="C87" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D87" s="1"/>
-      <c r="E87" s="1"/>
-      <c r="F87" s="1"/>
+      <c r="D87" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="88" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
@@ -3269,9 +3609,15 @@
       <c r="C88" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="D88" s="1"/>
-      <c r="E88" s="1"/>
-      <c r="F88" s="1"/>
+      <c r="D88" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="89" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
@@ -3283,9 +3629,15 @@
       <c r="C89" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="D89" s="1"/>
-      <c r="E89" s="1"/>
-      <c r="F89" s="1"/>
+      <c r="D89" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="90" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
@@ -3297,9 +3649,15 @@
       <c r="C90" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="D90" s="1"/>
-      <c r="E90" s="1"/>
-      <c r="F90" s="1"/>
+      <c r="D90" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="91" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
@@ -3311,9 +3669,15 @@
       <c r="C91" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="D91" s="1"/>
-      <c r="E91" s="1"/>
-      <c r="F91" s="1"/>
+      <c r="D91" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="92" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
@@ -3325,9 +3689,15 @@
       <c r="C92" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="D92" s="1"/>
-      <c r="E92" s="1"/>
-      <c r="F92" s="1"/>
+      <c r="D92" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="93" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
@@ -3339,9 +3709,15 @@
       <c r="C93" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="D93" s="1"/>
-      <c r="E93" s="1"/>
-      <c r="F93" s="1"/>
+      <c r="D93" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="94" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
@@ -3353,9 +3729,15 @@
       <c r="C94" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="D94" s="1"/>
-      <c r="E94" s="1"/>
-      <c r="F94" s="1"/>
+      <c r="D94" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="95" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
@@ -3367,9 +3749,15 @@
       <c r="C95" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="D95" s="1"/>
-      <c r="E95" s="1"/>
-      <c r="F95" s="1"/>
+      <c r="D95" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="96" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
@@ -3381,9 +3769,15 @@
       <c r="C96" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="D96" s="1"/>
-      <c r="E96" s="1"/>
-      <c r="F96" s="1"/>
+      <c r="D96" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="97" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
@@ -3395,9 +3789,15 @@
       <c r="C97" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D97" s="1"/>
-      <c r="E97" s="1"/>
-      <c r="F97" s="1"/>
+      <c r="D97" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="98" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
@@ -3409,9 +3809,15 @@
       <c r="C98" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D98" s="1"/>
-      <c r="E98" s="1"/>
-      <c r="F98" s="1"/>
+      <c r="D98" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="99" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
@@ -3423,9 +3829,15 @@
       <c r="C99" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D99" s="1"/>
-      <c r="E99" s="1"/>
-      <c r="F99" s="1"/>
+      <c r="D99" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="100" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
@@ -3437,9 +3849,15 @@
       <c r="C100" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D100" s="1"/>
-      <c r="E100" s="1"/>
-      <c r="F100" s="1"/>
+      <c r="D100" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="101" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
@@ -3451,9 +3869,15 @@
       <c r="C101" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D101" s="1"/>
-      <c r="E101" s="1"/>
-      <c r="F101" s="1"/>
+      <c r="D101" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="102" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
@@ -3465,9 +3889,15 @@
       <c r="C102" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D102" s="1"/>
-      <c r="E102" s="1"/>
-      <c r="F102" s="1"/>
+      <c r="D102" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="103" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
@@ -3479,9 +3909,15 @@
       <c r="C103" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D103" s="1"/>
-      <c r="E103" s="1"/>
-      <c r="F103" s="1"/>
+      <c r="D103" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="104" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
@@ -3493,9 +3929,15 @@
       <c r="C104" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D104" s="1"/>
-      <c r="E104" s="1"/>
-      <c r="F104" s="1"/>
+      <c r="D104" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="105" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
@@ -3507,9 +3949,15 @@
       <c r="C105" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D105" s="1"/>
-      <c r="E105" s="1"/>
-      <c r="F105" s="1"/>
+      <c r="D105" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="106" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
@@ -3521,9 +3969,15 @@
       <c r="C106" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D106" s="1"/>
-      <c r="E106" s="1"/>
-      <c r="F106" s="1"/>
+      <c r="D106" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="107" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
@@ -3535,9 +3989,15 @@
       <c r="C107" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="D107" s="1"/>
-      <c r="E107" s="1"/>
-      <c r="F107" s="1"/>
+      <c r="D107" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="108" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
@@ -3549,9 +4009,15 @@
       <c r="C108" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="D108" s="1"/>
-      <c r="E108" s="1"/>
-      <c r="F108" s="1"/>
+      <c r="D108" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="109" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
@@ -3563,9 +4029,15 @@
       <c r="C109" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="D109" s="1"/>
-      <c r="E109" s="1"/>
-      <c r="F109" s="1"/>
+      <c r="D109" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="110" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
@@ -3577,9 +4049,15 @@
       <c r="C110" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="D110" s="1"/>
-      <c r="E110" s="1"/>
-      <c r="F110" s="1"/>
+      <c r="D110" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="111" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
@@ -3591,9 +4069,15 @@
       <c r="C111" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="D111" s="1"/>
-      <c r="E111" s="1"/>
-      <c r="F111" s="1"/>
+      <c r="D111" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="112" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
@@ -3605,9 +4089,15 @@
       <c r="C112" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="D112" s="1"/>
-      <c r="E112" s="1"/>
-      <c r="F112" s="1"/>
+      <c r="D112" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="113" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
@@ -3619,9 +4109,15 @@
       <c r="C113" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="D113" s="1"/>
-      <c r="E113" s="1"/>
-      <c r="F113" s="1"/>
+      <c r="D113" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="114" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
@@ -3633,9 +4129,15 @@
       <c r="C114" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="D114" s="1"/>
-      <c r="E114" s="1"/>
-      <c r="F114" s="1"/>
+      <c r="D114" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="115" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
@@ -3647,9 +4149,15 @@
       <c r="C115" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="D115" s="1"/>
-      <c r="E115" s="1"/>
-      <c r="F115" s="1"/>
+      <c r="D115" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="116" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
@@ -3661,9 +4169,15 @@
       <c r="C116" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="D116" s="1"/>
-      <c r="E116" s="1"/>
-      <c r="F116" s="1"/>
+      <c r="D116" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="117" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
@@ -3675,9 +4189,15 @@
       <c r="C117" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="D117" s="1"/>
-      <c r="E117" s="1"/>
-      <c r="F117" s="1"/>
+      <c r="D117" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="118" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
@@ -3689,9 +4209,15 @@
       <c r="C118" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="D118" s="1"/>
-      <c r="E118" s="1"/>
-      <c r="F118" s="1"/>
+      <c r="D118" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="119" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
@@ -3703,9 +4229,15 @@
       <c r="C119" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="D119" s="1"/>
-      <c r="E119" s="1"/>
-      <c r="F119" s="1"/>
+      <c r="D119" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="120" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
@@ -3717,9 +4249,15 @@
       <c r="C120" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="D120" s="1"/>
-      <c r="E120" s="1"/>
-      <c r="F120" s="1"/>
+      <c r="D120" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="121" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
@@ -3731,9 +4269,15 @@
       <c r="C121" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="D121" s="1"/>
-      <c r="E121" s="1"/>
-      <c r="F121" s="1"/>
+      <c r="D121" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="122" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
@@ -3745,9 +4289,15 @@
       <c r="C122" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="D122" s="1"/>
-      <c r="E122" s="1"/>
-      <c r="F122" s="1"/>
+      <c r="D122" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="123" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
@@ -3759,9 +4309,15 @@
       <c r="C123" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="D123" s="1"/>
-      <c r="E123" s="1"/>
-      <c r="F123" s="1"/>
+      <c r="D123" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="124" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
@@ -3773,9 +4329,15 @@
       <c r="C124" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="D124" s="1"/>
-      <c r="E124" s="1"/>
-      <c r="F124" s="1"/>
+      <c r="D124" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="125" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
@@ -3787,9 +4349,15 @@
       <c r="C125" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="D125" s="1"/>
-      <c r="E125" s="1"/>
-      <c r="F125" s="1"/>
+      <c r="D125" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="126" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
@@ -3801,9 +4369,15 @@
       <c r="C126" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="D126" s="1"/>
-      <c r="E126" s="1"/>
-      <c r="F126" s="1"/>
+      <c r="D126" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="127" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
@@ -3815,9 +4389,15 @@
       <c r="C127" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="D127" s="1"/>
-      <c r="E127" s="1"/>
-      <c r="F127" s="1"/>
+      <c r="D127" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="128" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
@@ -3829,9 +4409,15 @@
       <c r="C128" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="D128" s="1"/>
-      <c r="E128" s="1"/>
-      <c r="F128" s="1"/>
+      <c r="D128" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="129" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
@@ -3843,9 +4429,15 @@
       <c r="C129" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="D129" s="1"/>
-      <c r="E129" s="1"/>
-      <c r="F129" s="1"/>
+      <c r="D129" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="130" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
@@ -3857,9 +4449,15 @@
       <c r="C130" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="D130" s="1"/>
-      <c r="E130" s="1"/>
-      <c r="F130" s="1"/>
+      <c r="D130" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="131" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
@@ -3871,9 +4469,15 @@
       <c r="C131" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="D131" s="1"/>
-      <c r="E131" s="1"/>
-      <c r="F131" s="1"/>
+      <c r="D131" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="132" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
@@ -3885,9 +4489,15 @@
       <c r="C132" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="D132" s="1"/>
-      <c r="E132" s="1"/>
-      <c r="F132" s="1"/>
+      <c r="D132" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="133" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
@@ -3899,9 +4509,15 @@
       <c r="C133" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="D133" s="1"/>
-      <c r="E133" s="1"/>
-      <c r="F133" s="1"/>
+      <c r="D133" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="134" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
@@ -3913,9 +4529,15 @@
       <c r="C134" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="D134" s="1"/>
-      <c r="E134" s="1"/>
-      <c r="F134" s="1"/>
+      <c r="D134" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F134" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="135" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
@@ -3927,9 +4549,15 @@
       <c r="C135" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="D135" s="1"/>
-      <c r="E135" s="1"/>
-      <c r="F135" s="1"/>
+      <c r="D135" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="136" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
@@ -3941,9 +4569,15 @@
       <c r="C136" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="D136" s="1"/>
-      <c r="E136" s="1"/>
-      <c r="F136" s="1"/>
+      <c r="D136" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F136" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="137" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
@@ -3955,9 +4589,15 @@
       <c r="C137" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="D137" s="1"/>
-      <c r="E137" s="1"/>
-      <c r="F137" s="1"/>
+      <c r="D137" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F137" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="138" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
@@ -3969,9 +4609,15 @@
       <c r="C138" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="D138" s="1"/>
-      <c r="E138" s="1"/>
-      <c r="F138" s="1"/>
+      <c r="D138" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F138" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="139" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
@@ -3983,9 +4629,15 @@
       <c r="C139" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="D139" s="1"/>
-      <c r="E139" s="1"/>
-      <c r="F139" s="1"/>
+      <c r="D139" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F139" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="140" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
@@ -3997,9 +4649,15 @@
       <c r="C140" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="D140" s="1"/>
-      <c r="E140" s="1"/>
-      <c r="F140" s="1"/>
+      <c r="D140" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F140" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="141" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
@@ -4011,9 +4669,15 @@
       <c r="C141" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="D141" s="1"/>
-      <c r="E141" s="1"/>
-      <c r="F141" s="1"/>
+      <c r="D141" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F141" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="142" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
@@ -4025,9 +4689,15 @@
       <c r="C142" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="D142" s="1"/>
-      <c r="E142" s="1"/>
-      <c r="F142" s="1"/>
+      <c r="D142" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F142" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="143" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
@@ -4039,9 +4709,15 @@
       <c r="C143" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="D143" s="1"/>
-      <c r="E143" s="1"/>
-      <c r="F143" s="1"/>
+      <c r="D143" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F143" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="144" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
@@ -4053,9 +4729,15 @@
       <c r="C144" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D144" s="1"/>
-      <c r="E144" s="1"/>
-      <c r="F144" s="1"/>
+      <c r="D144" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F144" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="145" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
@@ -4067,9 +4749,15 @@
       <c r="C145" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D145" s="1"/>
-      <c r="E145" s="1"/>
-      <c r="F145" s="1"/>
+      <c r="D145" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F145" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="146" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
@@ -4081,9 +4769,15 @@
       <c r="C146" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D146" s="1"/>
-      <c r="E146" s="1"/>
-      <c r="F146" s="1"/>
+      <c r="D146" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F146" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="147" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
@@ -4095,9 +4789,15 @@
       <c r="C147" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D147" s="1"/>
-      <c r="E147" s="1"/>
-      <c r="F147" s="1"/>
+      <c r="D147" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F147" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="148" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
@@ -4109,9 +4809,15 @@
       <c r="C148" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D148" s="1"/>
-      <c r="E148" s="1"/>
-      <c r="F148" s="1"/>
+      <c r="D148" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F148" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="149" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
@@ -4123,9 +4829,15 @@
       <c r="C149" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D149" s="1"/>
-      <c r="E149" s="1"/>
-      <c r="F149" s="1"/>
+      <c r="D149" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F149" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="150" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
@@ -4137,9 +4849,15 @@
       <c r="C150" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D150" s="1"/>
-      <c r="E150" s="1"/>
-      <c r="F150" s="1"/>
+      <c r="D150" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F150" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="151" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
@@ -4151,9 +4869,15 @@
       <c r="C151" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="D151" s="1"/>
-      <c r="E151" s="1"/>
-      <c r="F151" s="1"/>
+      <c r="D151" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F151" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="152" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
@@ -4165,9 +4889,15 @@
       <c r="C152" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="D152" s="1"/>
-      <c r="E152" s="1"/>
-      <c r="F152" s="1"/>
+      <c r="D152" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F152" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="153" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
@@ -4179,9 +4909,15 @@
       <c r="C153" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="D153" s="1"/>
-      <c r="E153" s="1"/>
-      <c r="F153" s="1"/>
+      <c r="D153" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F153" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="154" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
@@ -4193,9 +4929,15 @@
       <c r="C154" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="D154" s="1"/>
-      <c r="E154" s="1"/>
-      <c r="F154" s="1"/>
+      <c r="D154" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F154" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="155" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
@@ -4207,9 +4949,15 @@
       <c r="C155" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="D155" s="1"/>
-      <c r="E155" s="1"/>
-      <c r="F155" s="1"/>
+      <c r="D155" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F155" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="156" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
@@ -4221,9 +4969,15 @@
       <c r="C156" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="D156" s="1"/>
-      <c r="E156" s="1"/>
-      <c r="F156" s="1"/>
+      <c r="D156" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F156" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="157" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
@@ -4235,9 +4989,15 @@
       <c r="C157" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="D157" s="1"/>
-      <c r="E157" s="1"/>
-      <c r="F157" s="1"/>
+      <c r="D157" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F157" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="158" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
@@ -4249,9 +5009,15 @@
       <c r="C158" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="D158" s="1"/>
-      <c r="E158" s="1"/>
-      <c r="F158" s="1"/>
+      <c r="D158" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F158" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="159" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
@@ -4263,9 +5029,15 @@
       <c r="C159" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="D159" s="1"/>
-      <c r="E159" s="1"/>
-      <c r="F159" s="1"/>
+      <c r="D159" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F159" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="160" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
@@ -4277,9 +5049,15 @@
       <c r="C160" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="D160" s="1"/>
-      <c r="E160" s="1"/>
-      <c r="F160" s="1"/>
+      <c r="D160" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E160" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F160" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="161" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
@@ -4291,9 +5069,15 @@
       <c r="C161" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="D161" s="1"/>
-      <c r="E161" s="1"/>
-      <c r="F161" s="1"/>
+      <c r="D161" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F161" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="162" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
@@ -4305,9 +5089,15 @@
       <c r="C162" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="D162" s="1"/>
-      <c r="E162" s="1"/>
-      <c r="F162" s="1"/>
+      <c r="D162" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E162" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F162" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="163" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
@@ -4319,9 +5109,15 @@
       <c r="C163" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="D163" s="1"/>
-      <c r="E163" s="1"/>
-      <c r="F163" s="1"/>
+      <c r="D163" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E163" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F163" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="164" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
@@ -4333,9 +5129,15 @@
       <c r="C164" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="D164" s="1"/>
-      <c r="E164" s="1"/>
-      <c r="F164" s="1"/>
+      <c r="D164" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E164" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F164" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="165" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
@@ -4347,9 +5149,15 @@
       <c r="C165" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="D165" s="1"/>
-      <c r="E165" s="1"/>
-      <c r="F165" s="1"/>
+      <c r="D165" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E165" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F165" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="166" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
@@ -4361,9 +5169,15 @@
       <c r="C166" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="D166" s="1"/>
-      <c r="E166" s="1"/>
-      <c r="F166" s="1"/>
+      <c r="D166" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E166" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F166" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="167" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
@@ -4375,9 +5189,15 @@
       <c r="C167" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="D167" s="1"/>
-      <c r="E167" s="1"/>
-      <c r="F167" s="1"/>
+      <c r="D167" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E167" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F167" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="168" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
@@ -4389,9 +5209,15 @@
       <c r="C168" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="D168" s="1"/>
-      <c r="E168" s="1"/>
-      <c r="F168" s="1"/>
+      <c r="D168" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F168" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="169" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
@@ -4403,9 +5229,15 @@
       <c r="C169" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="D169" s="1"/>
-      <c r="E169" s="1"/>
-      <c r="F169" s="1"/>
+      <c r="D169" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E169" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F169" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="170" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
@@ -4417,9 +5249,15 @@
       <c r="C170" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="D170" s="1"/>
-      <c r="E170" s="1"/>
-      <c r="F170" s="1"/>
+      <c r="D170" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E170" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F170" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="171" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
@@ -4431,9 +5269,15 @@
       <c r="C171" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="D171" s="1"/>
-      <c r="E171" s="1"/>
-      <c r="F171" s="1"/>
+      <c r="D171" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E171" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F171" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="172" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
@@ -4445,9 +5289,15 @@
       <c r="C172" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="D172" s="1"/>
-      <c r="E172" s="1"/>
-      <c r="F172" s="1"/>
+      <c r="D172" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E172" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F172" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="173" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
@@ -4459,9 +5309,15 @@
       <c r="C173" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="D173" s="1"/>
-      <c r="E173" s="1"/>
-      <c r="F173" s="1"/>
+      <c r="D173" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E173" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F173" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="174" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
@@ -4473,9 +5329,15 @@
       <c r="C174" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="D174" s="1"/>
-      <c r="E174" s="1"/>
-      <c r="F174" s="1"/>
+      <c r="D174" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E174" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F174" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="175" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
@@ -4487,9 +5349,15 @@
       <c r="C175" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="D175" s="1"/>
-      <c r="E175" s="1"/>
-      <c r="F175" s="1"/>
+      <c r="D175" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E175" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F175" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="176" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
@@ -4501,9 +5369,15 @@
       <c r="C176" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="D176" s="1"/>
-      <c r="E176" s="1"/>
-      <c r="F176" s="1"/>
+      <c r="D176" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E176" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F176" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="177" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
@@ -4515,9 +5389,15 @@
       <c r="C177" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="D177" s="1"/>
-      <c r="E177" s="1"/>
-      <c r="F177" s="1"/>
+      <c r="D177" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E177" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F177" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="178" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
@@ -4529,9 +5409,15 @@
       <c r="C178" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="D178" s="1"/>
-      <c r="E178" s="1"/>
-      <c r="F178" s="1"/>
+      <c r="D178" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E178" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F178" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="179" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
@@ -4543,9 +5429,15 @@
       <c r="C179" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="D179" s="1"/>
-      <c r="E179" s="1"/>
-      <c r="F179" s="1"/>
+      <c r="D179" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E179" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F179" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="180" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
@@ -4557,9 +5449,15 @@
       <c r="C180" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="D180" s="1"/>
-      <c r="E180" s="1"/>
-      <c r="F180" s="1"/>
+      <c r="D180" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E180" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F180" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="181" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
@@ -4571,9 +5469,15 @@
       <c r="C181" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="D181" s="1"/>
-      <c r="E181" s="1"/>
-      <c r="F181" s="1"/>
+      <c r="D181" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E181" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F181" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="182" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
@@ -4585,9 +5489,15 @@
       <c r="C182" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="D182" s="1"/>
-      <c r="E182" s="1"/>
-      <c r="F182" s="1"/>
+      <c r="D182" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E182" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F182" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="183" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
@@ -4599,9 +5509,15 @@
       <c r="C183" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="D183" s="1"/>
-      <c r="E183" s="1"/>
-      <c r="F183" s="1"/>
+      <c r="D183" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E183" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F183" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="184" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
@@ -4613,9 +5529,15 @@
       <c r="C184" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="D184" s="1"/>
-      <c r="E184" s="1"/>
-      <c r="F184" s="1"/>
+      <c r="D184" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E184" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F184" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="185" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
@@ -4627,9 +5549,15 @@
       <c r="C185" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="D185" s="1"/>
-      <c r="E185" s="1"/>
-      <c r="F185" s="1"/>
+      <c r="D185" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E185" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F185" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="186" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
@@ -4641,9 +5569,15 @@
       <c r="C186" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="D186" s="1"/>
-      <c r="E186" s="1"/>
-      <c r="F186" s="1"/>
+      <c r="D186" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E186" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F186" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="187" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
@@ -4655,9 +5589,15 @@
       <c r="C187" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="D187" s="1"/>
-      <c r="E187" s="1"/>
-      <c r="F187" s="1"/>
+      <c r="D187" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E187" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F187" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="188" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
@@ -4669,9 +5609,15 @@
       <c r="C188" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="D188" s="1"/>
-      <c r="E188" s="1"/>
-      <c r="F188" s="1"/>
+      <c r="D188" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E188" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F188" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="189" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
@@ -4683,9 +5629,15 @@
       <c r="C189" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="D189" s="1"/>
-      <c r="E189" s="1"/>
-      <c r="F189" s="1"/>
+      <c r="D189" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E189" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F189" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="190" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
@@ -4697,9 +5649,15 @@
       <c r="C190" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="D190" s="1"/>
-      <c r="E190" s="1"/>
-      <c r="F190" s="1"/>
+      <c r="D190" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E190" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F190" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="191" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
@@ -4711,9 +5669,15 @@
       <c r="C191" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="D191" s="1"/>
-      <c r="E191" s="1"/>
-      <c r="F191" s="1"/>
+      <c r="D191" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E191" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F191" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="192" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
@@ -4725,9 +5689,15 @@
       <c r="C192" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="D192" s="1"/>
-      <c r="E192" s="1"/>
-      <c r="F192" s="1"/>
+      <c r="D192" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E192" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F192" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="193" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
@@ -4739,9 +5709,15 @@
       <c r="C193" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="D193" s="1"/>
-      <c r="E193" s="1"/>
-      <c r="F193" s="1"/>
+      <c r="D193" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E193" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F193" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="194" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
@@ -4753,9 +5729,15 @@
       <c r="C194" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="D194" s="1"/>
-      <c r="E194" s="1"/>
-      <c r="F194" s="1"/>
+      <c r="D194" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E194" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F194" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="195" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
@@ -4767,9 +5749,15 @@
       <c r="C195" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="D195" s="1"/>
-      <c r="E195" s="1"/>
-      <c r="F195" s="1"/>
+      <c r="D195" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E195" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F195" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="196" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
@@ -4781,9 +5769,15 @@
       <c r="C196" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="D196" s="1"/>
-      <c r="E196" s="1"/>
-      <c r="F196" s="1"/>
+      <c r="D196" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E196" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F196" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="197" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
@@ -4795,9 +5789,15 @@
       <c r="C197" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="D197" s="1"/>
-      <c r="E197" s="1"/>
-      <c r="F197" s="1"/>
+      <c r="D197" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E197" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F197" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="198" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
@@ -4809,9 +5809,15 @@
       <c r="C198" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="D198" s="1"/>
-      <c r="E198" s="1"/>
-      <c r="F198" s="1"/>
+      <c r="D198" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E198" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F198" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="199" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
@@ -4823,9 +5829,15 @@
       <c r="C199" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="D199" s="1"/>
-      <c r="E199" s="1"/>
-      <c r="F199" s="1"/>
+      <c r="D199" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E199" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F199" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="200" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
@@ -4837,9 +5849,15 @@
       <c r="C200" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="D200" s="1"/>
-      <c r="E200" s="1"/>
-      <c r="F200" s="1"/>
+      <c r="D200" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E200" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F200" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="201" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
@@ -4851,9 +5869,15 @@
       <c r="C201" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="D201" s="1"/>
-      <c r="E201" s="1"/>
-      <c r="F201" s="1"/>
+      <c r="D201" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E201" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F201" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="202" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
@@ -4865,9 +5889,15 @@
       <c r="C202" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="D202" s="1"/>
-      <c r="E202" s="1"/>
-      <c r="F202" s="1"/>
+      <c r="D202" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E202" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F202" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="203" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
@@ -4879,9 +5909,15 @@
       <c r="C203" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="D203" s="1"/>
-      <c r="E203" s="1"/>
-      <c r="F203" s="1"/>
+      <c r="D203" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E203" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F203" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="204" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
@@ -4893,9 +5929,15 @@
       <c r="C204" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="D204" s="1"/>
-      <c r="E204" s="1"/>
-      <c r="F204" s="1"/>
+      <c r="D204" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E204" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F204" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="205" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
@@ -4907,9 +5949,15 @@
       <c r="C205" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="D205" s="1"/>
-      <c r="E205" s="1"/>
-      <c r="F205" s="1"/>
+      <c r="D205" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E205" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F205" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="206" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
@@ -4921,9 +5969,15 @@
       <c r="C206" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="D206" s="1"/>
-      <c r="E206" s="1"/>
-      <c r="F206" s="1"/>
+      <c r="D206" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E206" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F206" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="207" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
@@ -4935,9 +5989,15 @@
       <c r="C207" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="D207" s="1"/>
-      <c r="E207" s="1"/>
-      <c r="F207" s="1"/>
+      <c r="D207" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E207" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F207" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="208" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
@@ -4949,9 +6009,15 @@
       <c r="C208" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="D208" s="1"/>
-      <c r="E208" s="1"/>
-      <c r="F208" s="1"/>
+      <c r="D208" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E208" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F208" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="209" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
@@ -4963,9 +6029,15 @@
       <c r="C209" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="D209" s="1"/>
-      <c r="E209" s="1"/>
-      <c r="F209" s="1"/>
+      <c r="D209" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E209" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F209" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="210" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
@@ -4977,9 +6049,15 @@
       <c r="C210" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="D210" s="1"/>
-      <c r="E210" s="1"/>
-      <c r="F210" s="1"/>
+      <c r="D210" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E210" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F210" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="211" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
@@ -4991,9 +6069,15 @@
       <c r="C211" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="D211" s="1"/>
-      <c r="E211" s="1"/>
-      <c r="F211" s="1"/>
+      <c r="D211" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E211" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F211" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="212" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
@@ -5005,9 +6089,15 @@
       <c r="C212" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="D212" s="1"/>
-      <c r="E212" s="1"/>
-      <c r="F212" s="1"/>
+      <c r="D212" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E212" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F212" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="213" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
@@ -5019,9 +6109,15 @@
       <c r="C213" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="D213" s="1"/>
-      <c r="E213" s="1"/>
-      <c r="F213" s="1"/>
+      <c r="D213" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E213" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F213" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="214" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
@@ -5033,9 +6129,15 @@
       <c r="C214" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="D214" s="1"/>
-      <c r="E214" s="1"/>
-      <c r="F214" s="1"/>
+      <c r="D214" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E214" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F214" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="215" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
@@ -5047,9 +6149,15 @@
       <c r="C215" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="D215" s="1"/>
-      <c r="E215" s="1"/>
-      <c r="F215" s="1"/>
+      <c r="D215" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E215" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F215" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="216" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
@@ -5061,9 +6169,15 @@
       <c r="C216" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="D216" s="1"/>
-      <c r="E216" s="1"/>
-      <c r="F216" s="1"/>
+      <c r="D216" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E216" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F216" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="217" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
@@ -5075,9 +6189,15 @@
       <c r="C217" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="D217" s="1"/>
-      <c r="E217" s="1"/>
-      <c r="F217" s="1"/>
+      <c r="D217" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E217" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F217" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="218" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
@@ -5089,9 +6209,15 @@
       <c r="C218" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="D218" s="1"/>
-      <c r="E218" s="1"/>
-      <c r="F218" s="1"/>
+      <c r="D218" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E218" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F218" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="219" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
@@ -5103,9 +6229,15 @@
       <c r="C219" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="D219" s="1"/>
-      <c r="E219" s="1"/>
-      <c r="F219" s="1"/>
+      <c r="D219" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E219" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F219" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="220" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
@@ -5117,9 +6249,15 @@
       <c r="C220" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="D220" s="1"/>
-      <c r="E220" s="1"/>
-      <c r="F220" s="1"/>
+      <c r="D220" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E220" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F220" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="221" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
@@ -5131,9 +6269,15 @@
       <c r="C221" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="D221" s="1"/>
-      <c r="E221" s="1"/>
-      <c r="F221" s="1"/>
+      <c r="D221" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E221" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F221" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="222" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
@@ -5145,9 +6289,15 @@
       <c r="C222" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="D222" s="1"/>
-      <c r="E222" s="1"/>
-      <c r="F222" s="1"/>
+      <c r="D222" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E222" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F222" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="223" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
@@ -5159,9 +6309,15 @@
       <c r="C223" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="D223" s="1"/>
-      <c r="E223" s="1"/>
-      <c r="F223" s="1"/>
+      <c r="D223" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E223" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F223" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="224" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
@@ -5173,9 +6329,15 @@
       <c r="C224" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="D224" s="1"/>
-      <c r="E224" s="1"/>
-      <c r="F224" s="1"/>
+      <c r="D224" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E224" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F224" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="225" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
@@ -5187,9 +6349,15 @@
       <c r="C225" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="D225" s="1"/>
-      <c r="E225" s="1"/>
-      <c r="F225" s="1"/>
+      <c r="D225" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E225" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F225" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="226" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
@@ -5201,9 +6369,15 @@
       <c r="C226" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="D226" s="1"/>
-      <c r="E226" s="1"/>
-      <c r="F226" s="1"/>
+      <c r="D226" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E226" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F226" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="227" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
@@ -5215,9 +6389,15 @@
       <c r="C227" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="D227" s="1"/>
-      <c r="E227" s="1"/>
-      <c r="F227" s="1"/>
+      <c r="D227" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E227" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F227" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="228" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
@@ -5229,9 +6409,15 @@
       <c r="C228" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="D228" s="1"/>
-      <c r="E228" s="1"/>
-      <c r="F228" s="1"/>
+      <c r="D228" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E228" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F228" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="229" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
@@ -5243,9 +6429,15 @@
       <c r="C229" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="D229" s="1"/>
-      <c r="E229" s="1"/>
-      <c r="F229" s="1"/>
+      <c r="D229" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E229" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F229" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="230" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
@@ -5257,9 +6449,15 @@
       <c r="C230" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="D230" s="1"/>
-      <c r="E230" s="1"/>
-      <c r="F230" s="1"/>
+      <c r="D230" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E230" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F230" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="231" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
@@ -5271,9 +6469,15 @@
       <c r="C231" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="D231" s="1"/>
-      <c r="E231" s="1"/>
-      <c r="F231" s="1"/>
+      <c r="D231" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E231" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F231" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="232" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
@@ -5285,9 +6489,15 @@
       <c r="C232" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="D232" s="1"/>
-      <c r="E232" s="1"/>
-      <c r="F232" s="1"/>
+      <c r="D232" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E232" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F232" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="233" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
@@ -5299,9 +6509,15 @@
       <c r="C233" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="D233" s="1"/>
-      <c r="E233" s="1"/>
-      <c r="F233" s="1"/>
+      <c r="D233" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E233" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F233" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="234" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
@@ -5313,9 +6529,15 @@
       <c r="C234" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="D234" s="1"/>
-      <c r="E234" s="1"/>
-      <c r="F234" s="1"/>
+      <c r="D234" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E234" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F234" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="235" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
@@ -5327,9 +6549,15 @@
       <c r="C235" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="D235" s="1"/>
-      <c r="E235" s="1"/>
-      <c r="F235" s="1"/>
+      <c r="D235" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E235" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F235" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="236" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
@@ -5341,9 +6569,15 @@
       <c r="C236" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="D236" s="1"/>
-      <c r="E236" s="1"/>
-      <c r="F236" s="1"/>
+      <c r="D236" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E236" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F236" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="237" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
@@ -5355,9 +6589,15 @@
       <c r="C237" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="D237" s="1"/>
-      <c r="E237" s="1"/>
-      <c r="F237" s="1"/>
+      <c r="D237" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E237" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F237" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="238" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
@@ -5369,9 +6609,15 @@
       <c r="C238" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="D238" s="1"/>
-      <c r="E238" s="1"/>
-      <c r="F238" s="1"/>
+      <c r="D238" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E238" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F238" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="239" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
@@ -5383,9 +6629,15 @@
       <c r="C239" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="D239" s="1"/>
-      <c r="E239" s="1"/>
-      <c r="F239" s="1"/>
+      <c r="D239" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E239" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F239" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="240" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
@@ -5397,9 +6649,15 @@
       <c r="C240" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="D240" s="1"/>
-      <c r="E240" s="1"/>
-      <c r="F240" s="1"/>
+      <c r="D240" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E240" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F240" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="241" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
@@ -5411,9 +6669,15 @@
       <c r="C241" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="D241" s="1"/>
-      <c r="E241" s="1"/>
-      <c r="F241" s="1"/>
+      <c r="D241" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E241" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F241" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="242" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
@@ -5425,9 +6689,15 @@
       <c r="C242" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="D242" s="1"/>
-      <c r="E242" s="1"/>
-      <c r="F242" s="1"/>
+      <c r="D242" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E242" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F242" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="243" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
@@ -5439,9 +6709,15 @@
       <c r="C243" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="D243" s="1"/>
-      <c r="E243" s="1"/>
-      <c r="F243" s="1"/>
+      <c r="D243" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E243" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F243" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="244" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
@@ -5453,9 +6729,15 @@
       <c r="C244" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="D244" s="1"/>
-      <c r="E244" s="1"/>
-      <c r="F244" s="1"/>
+      <c r="D244" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E244" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F244" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="245" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
@@ -5467,9 +6749,15 @@
       <c r="C245" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="D245" s="1"/>
-      <c r="E245" s="1"/>
-      <c r="F245" s="1"/>
+      <c r="D245" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E245" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F245" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="246" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
@@ -5481,9 +6769,15 @@
       <c r="C246" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="D246" s="1"/>
-      <c r="E246" s="1"/>
-      <c r="F246" s="1"/>
+      <c r="D246" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E246" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F246" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="247" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
@@ -5495,9 +6789,15 @@
       <c r="C247" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="D247" s="1"/>
-      <c r="E247" s="1"/>
-      <c r="F247" s="1"/>
+      <c r="D247" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E247" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F247" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="248" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
@@ -5509,9 +6809,15 @@
       <c r="C248" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="D248" s="1"/>
-      <c r="E248" s="1"/>
-      <c r="F248" s="1"/>
+      <c r="D248" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E248" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F248" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="249" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
@@ -5523,9 +6829,15 @@
       <c r="C249" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="D249" s="1"/>
-      <c r="E249" s="1"/>
-      <c r="F249" s="1"/>
+      <c r="D249" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E249" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F249" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="250" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
@@ -5537,9 +6849,15 @@
       <c r="C250" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="D250" s="1"/>
-      <c r="E250" s="1"/>
-      <c r="F250" s="1"/>
+      <c r="D250" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E250" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F250" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="251" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
@@ -5551,9 +6869,15 @@
       <c r="C251" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="D251" s="1"/>
-      <c r="E251" s="1"/>
-      <c r="F251" s="1"/>
+      <c r="D251" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E251" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F251" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="252" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
@@ -5565,9 +6889,15 @@
       <c r="C252" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="D252" s="1"/>
-      <c r="E252" s="1"/>
-      <c r="F252" s="1"/>
+      <c r="D252" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E252" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F252" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="253" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
@@ -5579,9 +6909,15 @@
       <c r="C253" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="D253" s="1"/>
-      <c r="E253" s="1"/>
-      <c r="F253" s="1"/>
+      <c r="D253" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E253" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F253" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="254" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
@@ -5593,9 +6929,15 @@
       <c r="C254" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="D254" s="1"/>
-      <c r="E254" s="1"/>
-      <c r="F254" s="1"/>
+      <c r="D254" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E254" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F254" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="255" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
@@ -5607,9 +6949,15 @@
       <c r="C255" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="D255" s="1"/>
-      <c r="E255" s="1"/>
-      <c r="F255" s="1"/>
+      <c r="D255" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E255" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F255" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="256" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
@@ -5621,9 +6969,15 @@
       <c r="C256" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="D256" s="1"/>
-      <c r="E256" s="1"/>
-      <c r="F256" s="1"/>
+      <c r="D256" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E256" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F256" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="257" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
@@ -5635,9 +6989,15 @@
       <c r="C257" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="D257" s="1"/>
-      <c r="E257" s="1"/>
-      <c r="F257" s="1"/>
+      <c r="D257" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E257" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F257" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="258" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
@@ -5649,9 +7009,15 @@
       <c r="C258" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="D258" s="1"/>
-      <c r="E258" s="1"/>
-      <c r="F258" s="1"/>
+      <c r="D258" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E258" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F258" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="259" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
@@ -5663,9 +7029,15 @@
       <c r="C259" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="D259" s="1"/>
-      <c r="E259" s="1"/>
-      <c r="F259" s="1"/>
+      <c r="D259" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E259" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F259" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="260" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
@@ -5677,9 +7049,15 @@
       <c r="C260" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="D260" s="1"/>
-      <c r="E260" s="1"/>
-      <c r="F260" s="1"/>
+      <c r="D260" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E260" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F260" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="261" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
@@ -5691,9 +7069,15 @@
       <c r="C261" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="D261" s="1"/>
-      <c r="E261" s="1"/>
-      <c r="F261" s="1"/>
+      <c r="D261" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E261" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F261" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="262" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
@@ -5705,9 +7089,15 @@
       <c r="C262" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="D262" s="1"/>
-      <c r="E262" s="1"/>
-      <c r="F262" s="1"/>
+      <c r="D262" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E262" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F262" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="263" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
@@ -5719,9 +7109,15 @@
       <c r="C263" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="D263" s="1"/>
-      <c r="E263" s="1"/>
-      <c r="F263" s="1"/>
+      <c r="D263" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E263" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F263" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="264" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
@@ -5733,9 +7129,15 @@
       <c r="C264" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="D264" s="1"/>
-      <c r="E264" s="1"/>
-      <c r="F264" s="1"/>
+      <c r="D264" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E264" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F264" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="265" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
@@ -5747,9 +7149,15 @@
       <c r="C265" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="D265" s="1"/>
-      <c r="E265" s="1"/>
-      <c r="F265" s="1"/>
+      <c r="D265" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E265" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F265" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="266" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
@@ -5761,9 +7169,15 @@
       <c r="C266" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="D266" s="1"/>
-      <c r="E266" s="1"/>
-      <c r="F266" s="1"/>
+      <c r="D266" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E266" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F266" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="267" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
@@ -5775,9 +7189,15 @@
       <c r="C267" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="D267" s="1"/>
-      <c r="E267" s="1"/>
-      <c r="F267" s="1"/>
+      <c r="D267" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E267" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F267" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="268" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
@@ -5789,9 +7209,15 @@
       <c r="C268" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="D268" s="1"/>
-      <c r="E268" s="1"/>
-      <c r="F268" s="1"/>
+      <c r="D268" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E268" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F268" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="269" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
@@ -5803,9 +7229,15 @@
       <c r="C269" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="D269" s="1"/>
-      <c r="E269" s="1"/>
-      <c r="F269" s="1"/>
+      <c r="D269" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E269" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F269" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="270" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
@@ -5817,9 +7249,15 @@
       <c r="C270" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="D270" s="1"/>
-      <c r="E270" s="1"/>
-      <c r="F270" s="1"/>
+      <c r="D270" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E270" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F270" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="271" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
@@ -5831,9 +7269,15 @@
       <c r="C271" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="D271" s="1"/>
-      <c r="E271" s="1"/>
-      <c r="F271" s="1"/>
+      <c r="D271" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E271" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F271" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="272" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
@@ -5845,9 +7289,15 @@
       <c r="C272" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="D272" s="1"/>
-      <c r="E272" s="1"/>
-      <c r="F272" s="1"/>
+      <c r="D272" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E272" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F272" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="273" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
@@ -5859,9 +7309,15 @@
       <c r="C273" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="D273" s="1"/>
-      <c r="E273" s="1"/>
-      <c r="F273" s="1"/>
+      <c r="D273" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E273" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F273" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="274" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
@@ -5873,9 +7329,15 @@
       <c r="C274" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="D274" s="1"/>
-      <c r="E274" s="1"/>
-      <c r="F274" s="1"/>
+      <c r="D274" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E274" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F274" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="275" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
@@ -5887,9 +7349,15 @@
       <c r="C275" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="D275" s="1"/>
-      <c r="E275" s="1"/>
-      <c r="F275" s="1"/>
+      <c r="D275" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E275" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F275" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="276" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
@@ -5901,9 +7369,15 @@
       <c r="C276" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="D276" s="1"/>
-      <c r="E276" s="1"/>
-      <c r="F276" s="1"/>
+      <c r="D276" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E276" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F276" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="277" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
@@ -5915,9 +7389,15 @@
       <c r="C277" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="D277" s="1"/>
-      <c r="E277" s="1"/>
-      <c r="F277" s="1"/>
+      <c r="D277" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E277" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F277" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="278" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
@@ -5929,9 +7409,15 @@
       <c r="C278" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="D278" s="1"/>
-      <c r="E278" s="1"/>
-      <c r="F278" s="1"/>
+      <c r="D278" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E278" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F278" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="279" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
@@ -5943,9 +7429,15 @@
       <c r="C279" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="D279" s="1"/>
-      <c r="E279" s="1"/>
-      <c r="F279" s="1"/>
+      <c r="D279" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E279" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F279" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="280" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
@@ -5957,9 +7449,15 @@
       <c r="C280" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="D280" s="1"/>
-      <c r="E280" s="1"/>
-      <c r="F280" s="1"/>
+      <c r="D280" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E280" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F280" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="281" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
@@ -5971,9 +7469,15 @@
       <c r="C281" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="D281" s="1"/>
-      <c r="E281" s="1"/>
-      <c r="F281" s="1"/>
+      <c r="D281" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E281" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F281" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="282" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
@@ -5985,9 +7489,15 @@
       <c r="C282" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="D282" s="1"/>
-      <c r="E282" s="1"/>
-      <c r="F282" s="1"/>
+      <c r="D282" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E282" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F282" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="283" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
@@ -5999,9 +7509,15 @@
       <c r="C283" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="D283" s="1"/>
-      <c r="E283" s="1"/>
-      <c r="F283" s="1"/>
+      <c r="D283" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E283" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F283" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="284" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
@@ -6013,9 +7529,15 @@
       <c r="C284" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="D284" s="1"/>
-      <c r="E284" s="1"/>
-      <c r="F284" s="1"/>
+      <c r="D284" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E284" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F284" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="285" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
@@ -6027,9 +7549,15 @@
       <c r="C285" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="D285" s="1"/>
-      <c r="E285" s="1"/>
-      <c r="F285" s="1"/>
+      <c r="D285" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E285" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F285" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="286" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
@@ -6041,9 +7569,15 @@
       <c r="C286" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="D286" s="1"/>
-      <c r="E286" s="1"/>
-      <c r="F286" s="1"/>
+      <c r="D286" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E286" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F286" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="287" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
@@ -6055,9 +7589,15 @@
       <c r="C287" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="D287" s="1"/>
-      <c r="E287" s="1"/>
-      <c r="F287" s="1"/>
+      <c r="D287" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E287" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F287" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="288" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
@@ -6069,9 +7609,15 @@
       <c r="C288" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="D288" s="1"/>
-      <c r="E288" s="1"/>
-      <c r="F288" s="1"/>
+      <c r="D288" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E288" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F288" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="289" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
@@ -6083,9 +7629,15 @@
       <c r="C289" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="D289" s="1"/>
-      <c r="E289" s="1"/>
-      <c r="F289" s="1"/>
+      <c r="D289" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E289" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F289" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="290" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
@@ -6097,9 +7649,15 @@
       <c r="C290" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="D290" s="1"/>
-      <c r="E290" s="1"/>
-      <c r="F290" s="1"/>
+      <c r="D290" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E290" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F290" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="291" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
@@ -6111,9 +7669,15 @@
       <c r="C291" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="D291" s="1"/>
-      <c r="E291" s="1"/>
-      <c r="F291" s="1"/>
+      <c r="D291" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E291" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F291" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="292" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
@@ -6125,9 +7689,15 @@
       <c r="C292" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="D292" s="1"/>
-      <c r="E292" s="1"/>
-      <c r="F292" s="1"/>
+      <c r="D292" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E292" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F292" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="293" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
@@ -6139,9 +7709,15 @@
       <c r="C293" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="D293" s="1"/>
-      <c r="E293" s="1"/>
-      <c r="F293" s="1"/>
+      <c r="D293" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E293" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F293" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="294" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
@@ -6153,9 +7729,15 @@
       <c r="C294" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="D294" s="1"/>
-      <c r="E294" s="1"/>
-      <c r="F294" s="1"/>
+      <c r="D294" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E294" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F294" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="295" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
@@ -6167,9 +7749,15 @@
       <c r="C295" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="D295" s="1"/>
-      <c r="E295" s="1"/>
-      <c r="F295" s="1"/>
+      <c r="D295" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E295" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F295" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="296" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
@@ -6181,9 +7769,15 @@
       <c r="C296" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="D296" s="1"/>
-      <c r="E296" s="1"/>
-      <c r="F296" s="1"/>
+      <c r="D296" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E296" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F296" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="297" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
@@ -6195,9 +7789,15 @@
       <c r="C297" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="D297" s="1"/>
-      <c r="E297" s="1"/>
-      <c r="F297" s="1"/>
+      <c r="D297" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E297" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F297" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="298" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
@@ -6209,9 +7809,15 @@
       <c r="C298" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="D298" s="1"/>
-      <c r="E298" s="1"/>
-      <c r="F298" s="1"/>
+      <c r="D298" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E298" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F298" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="299" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
@@ -6223,9 +7829,15 @@
       <c r="C299" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="D299" s="1"/>
-      <c r="E299" s="1"/>
-      <c r="F299" s="1"/>
+      <c r="D299" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E299" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F299" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="300" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
@@ -6237,9 +7849,15 @@
       <c r="C300" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="D300" s="1"/>
-      <c r="E300" s="1"/>
-      <c r="F300" s="1"/>
+      <c r="D300" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E300" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F300" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="301" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
@@ -6251,9 +7869,15 @@
       <c r="C301" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="D301" s="1"/>
-      <c r="E301" s="1"/>
-      <c r="F301" s="1"/>
+      <c r="D301" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E301" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F301" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="302" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
@@ -6265,9 +7889,15 @@
       <c r="C302" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="D302" s="1"/>
-      <c r="E302" s="1"/>
-      <c r="F302" s="1"/>
+      <c r="D302" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E302" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F302" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="303" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
@@ -6279,9 +7909,15 @@
       <c r="C303" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="D303" s="1"/>
-      <c r="E303" s="1"/>
-      <c r="F303" s="1"/>
+      <c r="D303" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E303" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F303" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="304" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
@@ -6293,9 +7929,15 @@
       <c r="C304" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="D304" s="1"/>
-      <c r="E304" s="1"/>
-      <c r="F304" s="1"/>
+      <c r="D304" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E304" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F304" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="305" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
@@ -6307,9 +7949,15 @@
       <c r="C305" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="D305" s="1"/>
-      <c r="E305" s="1"/>
-      <c r="F305" s="1"/>
+      <c r="D305" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E305" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F305" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="306" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
@@ -6321,9 +7969,15 @@
       <c r="C306" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="D306" s="1"/>
-      <c r="E306" s="1"/>
-      <c r="F306" s="1"/>
+      <c r="D306" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E306" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F306" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="307" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
@@ -6335,9 +7989,15 @@
       <c r="C307" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="D307" s="1"/>
-      <c r="E307" s="1"/>
-      <c r="F307" s="1"/>
+      <c r="D307" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E307" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F307" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="308" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
@@ -6349,9 +8009,15 @@
       <c r="C308" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="D308" s="1"/>
-      <c r="E308" s="1"/>
-      <c r="F308" s="1"/>
+      <c r="D308" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E308" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F308" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="309" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
@@ -6363,9 +8029,15 @@
       <c r="C309" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="D309" s="1"/>
-      <c r="E309" s="1"/>
-      <c r="F309" s="1"/>
+      <c r="D309" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E309" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F309" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="310" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
@@ -6377,9 +8049,15 @@
       <c r="C310" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="D310" s="1"/>
-      <c r="E310" s="1"/>
-      <c r="F310" s="1"/>
+      <c r="D310" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E310" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F310" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="311" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
@@ -6391,9 +8069,15 @@
       <c r="C311" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="D311" s="1"/>
-      <c r="E311" s="1"/>
-      <c r="F311" s="1"/>
+      <c r="D311" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E311" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F311" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="312" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
@@ -6405,9 +8089,15 @@
       <c r="C312" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="D312" s="1"/>
-      <c r="E312" s="1"/>
-      <c r="F312" s="1"/>
+      <c r="D312" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E312" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F312" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="313" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
@@ -6419,9 +8109,15 @@
       <c r="C313" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="D313" s="1"/>
-      <c r="E313" s="1"/>
-      <c r="F313" s="1"/>
+      <c r="D313" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E313" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F313" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="314" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
@@ -6433,9 +8129,15 @@
       <c r="C314" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="D314" s="1"/>
-      <c r="E314" s="1"/>
-      <c r="F314" s="1"/>
+      <c r="D314" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E314" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F314" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="315" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A315" s="1" t="s">
@@ -6447,9 +8149,15 @@
       <c r="C315" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="D315" s="1"/>
-      <c r="E315" s="1"/>
-      <c r="F315" s="1"/>
+      <c r="D315" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E315" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F315" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="316" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
@@ -6461,9 +8169,15 @@
       <c r="C316" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="D316" s="1"/>
-      <c r="E316" s="1"/>
-      <c r="F316" s="1"/>
+      <c r="D316" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E316" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F316" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="317" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
@@ -6475,9 +8189,15 @@
       <c r="C317" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="D317" s="1"/>
-      <c r="E317" s="1"/>
-      <c r="F317" s="1"/>
+      <c r="D317" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E317" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F317" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="318" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A318" s="1" t="s">
@@ -6489,9 +8209,15 @@
       <c r="C318" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="D318" s="1"/>
-      <c r="E318" s="1"/>
-      <c r="F318" s="1"/>
+      <c r="D318" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E318" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F318" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="319" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
@@ -6503,9 +8229,15 @@
       <c r="C319" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="D319" s="1"/>
-      <c r="E319" s="1"/>
-      <c r="F319" s="1"/>
+      <c r="D319" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E319" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F319" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="320" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
@@ -6517,9 +8249,15 @@
       <c r="C320" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="D320" s="1"/>
-      <c r="E320" s="1"/>
-      <c r="F320" s="1"/>
+      <c r="D320" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E320" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F320" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="321" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A321" s="1" t="s">
@@ -6531,9 +8269,15 @@
       <c r="C321" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="D321" s="1"/>
-      <c r="E321" s="1"/>
-      <c r="F321" s="1"/>
+      <c r="D321" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E321" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F321" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="322" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
@@ -6545,9 +8289,15 @@
       <c r="C322" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="D322" s="1"/>
-      <c r="E322" s="1"/>
-      <c r="F322" s="1"/>
+      <c r="D322" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E322" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F322" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="323" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A323" s="1" t="s">
@@ -6559,9 +8309,15 @@
       <c r="C323" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="D323" s="1"/>
-      <c r="E323" s="1"/>
-      <c r="F323" s="1"/>
+      <c r="D323" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E323" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F323" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="324" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A324" s="1" t="s">
@@ -6573,9 +8329,15 @@
       <c r="C324" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="D324" s="1"/>
-      <c r="E324" s="1"/>
-      <c r="F324" s="1"/>
+      <c r="D324" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E324" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F324" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="325" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A325" s="1" t="s">
@@ -6587,9 +8349,15 @@
       <c r="C325" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="D325" s="1"/>
-      <c r="E325" s="1"/>
-      <c r="F325" s="1"/>
+      <c r="D325" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E325" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F325" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="326" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A326" s="1" t="s">
@@ -6601,9 +8369,15 @@
       <c r="C326" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="D326" s="1"/>
-      <c r="E326" s="1"/>
-      <c r="F326" s="1"/>
+      <c r="D326" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E326" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F326" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="327" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A327" s="1" t="s">
@@ -6615,9 +8389,15 @@
       <c r="C327" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="D327" s="1"/>
-      <c r="E327" s="1"/>
-      <c r="F327" s="1"/>
+      <c r="D327" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E327" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F327" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="328" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A328" s="1" t="s">
@@ -6629,9 +8409,15 @@
       <c r="C328" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="D328" s="1"/>
-      <c r="E328" s="1"/>
-      <c r="F328" s="1"/>
+      <c r="D328" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E328" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F328" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="329" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A329" s="1" t="s">
@@ -6643,9 +8429,15 @@
       <c r="C329" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="D329" s="1"/>
-      <c r="E329" s="1"/>
-      <c r="F329" s="1"/>
+      <c r="D329" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E329" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F329" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="330" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A330" s="1" t="s">
@@ -6657,9 +8449,15 @@
       <c r="C330" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="D330" s="1"/>
-      <c r="E330" s="1"/>
-      <c r="F330" s="1"/>
+      <c r="D330" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E330" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F330" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="331" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A331" s="1" t="s">
@@ -6671,9 +8469,15 @@
       <c r="C331" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="D331" s="1"/>
-      <c r="E331" s="1"/>
-      <c r="F331" s="1"/>
+      <c r="D331" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E331" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F331" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="332" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
@@ -6685,9 +8489,15 @@
       <c r="C332" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="D332" s="1"/>
-      <c r="E332" s="1"/>
-      <c r="F332" s="1"/>
+      <c r="D332" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E332" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F332" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="333" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A333" s="1" t="s">
@@ -6699,9 +8509,15 @@
       <c r="C333" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="D333" s="1"/>
-      <c r="E333" s="1"/>
-      <c r="F333" s="1"/>
+      <c r="D333" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E333" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F333" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="334" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
@@ -6713,9 +8529,15 @@
       <c r="C334" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="D334" s="1"/>
-      <c r="E334" s="1"/>
-      <c r="F334" s="1"/>
+      <c r="D334" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E334" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F334" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="335" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
@@ -6727,9 +8549,15 @@
       <c r="C335" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="D335" s="1"/>
-      <c r="E335" s="1"/>
-      <c r="F335" s="1"/>
+      <c r="D335" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E335" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F335" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="336" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A336" s="1" t="s">
@@ -6741,9 +8569,15 @@
       <c r="C336" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="D336" s="1"/>
-      <c r="E336" s="1"/>
-      <c r="F336" s="1"/>
+      <c r="D336" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E336" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F336" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="337" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A337" s="1" t="s">
@@ -6755,9 +8589,15 @@
       <c r="C337" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="D337" s="1"/>
-      <c r="E337" s="1"/>
-      <c r="F337" s="1"/>
+      <c r="D337" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E337" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F337" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="338" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A338" s="1" t="s">
@@ -6769,9 +8609,15 @@
       <c r="C338" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="D338" s="1"/>
-      <c r="E338" s="1"/>
-      <c r="F338" s="1"/>
+      <c r="D338" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E338" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F338" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="339" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A339" s="1" t="s">
@@ -6783,9 +8629,15 @@
       <c r="C339" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="D339" s="1"/>
-      <c r="E339" s="1"/>
-      <c r="F339" s="1"/>
+      <c r="D339" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E339" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F339" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="340" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A340" s="1" t="s">
@@ -6797,9 +8649,15 @@
       <c r="C340" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="D340" s="1"/>
-      <c r="E340" s="1"/>
-      <c r="F340" s="1"/>
+      <c r="D340" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E340" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F340" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="341" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A341" s="1" t="s">
@@ -6811,9 +8669,15 @@
       <c r="C341" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="D341" s="1"/>
-      <c r="E341" s="1"/>
-      <c r="F341" s="1"/>
+      <c r="D341" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E341" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F341" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="342" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A342" s="1" t="s">
@@ -6825,9 +8689,15 @@
       <c r="C342" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="D342" s="1"/>
-      <c r="E342" s="1"/>
-      <c r="F342" s="1"/>
+      <c r="D342" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E342" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F342" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="343" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A343" s="1" t="s">
@@ -6839,9 +8709,15 @@
       <c r="C343" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="D343" s="1"/>
-      <c r="E343" s="1"/>
-      <c r="F343" s="1"/>
+      <c r="D343" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E343" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F343" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="344" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A344" s="1" t="s">
@@ -6853,9 +8729,15 @@
       <c r="C344" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="D344" s="1"/>
-      <c r="E344" s="1"/>
-      <c r="F344" s="1"/>
+      <c r="D344" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E344" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F344" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="345" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A345" s="1" t="s">
@@ -6867,9 +8749,15 @@
       <c r="C345" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="D345" s="1"/>
-      <c r="E345" s="1"/>
-      <c r="F345" s="1"/>
+      <c r="D345" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E345" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F345" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="346" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A346" s="1" t="s">
@@ -6881,9 +8769,15 @@
       <c r="C346" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="D346" s="1"/>
-      <c r="E346" s="1"/>
-      <c r="F346" s="1"/>
+      <c r="D346" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E346" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F346" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="347" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A347" s="1" t="s">
@@ -6895,9 +8789,15 @@
       <c r="C347" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="D347" s="1"/>
-      <c r="E347" s="1"/>
-      <c r="F347" s="1"/>
+      <c r="D347" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E347" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F347" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="348" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A348" s="1" t="s">
@@ -6909,9 +8809,15 @@
       <c r="C348" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="D348" s="1"/>
-      <c r="E348" s="1"/>
-      <c r="F348" s="1"/>
+      <c r="D348" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E348" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F348" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="349" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A349" s="1" t="s">
@@ -6923,9 +8829,15 @@
       <c r="C349" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="D349" s="1"/>
-      <c r="E349" s="1"/>
-      <c r="F349" s="1"/>
+      <c r="D349" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E349" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F349" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="350" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A350" s="1" t="s">
@@ -6937,9 +8849,15 @@
       <c r="C350" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="D350" s="1"/>
-      <c r="E350" s="1"/>
-      <c r="F350" s="1"/>
+      <c r="D350" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E350" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F350" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="351" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A351" s="1" t="s">
@@ -6951,9 +8869,15 @@
       <c r="C351" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="D351" s="1"/>
-      <c r="E351" s="1"/>
-      <c r="F351" s="1"/>
+      <c r="D351" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E351" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F351" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="352" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A352" s="1" t="s">
@@ -6965,9 +8889,15 @@
       <c r="C352" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="D352" s="1"/>
-      <c r="E352" s="1"/>
-      <c r="F352" s="1"/>
+      <c r="D352" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E352" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F352" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="353" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A353" s="1" t="s">
@@ -6979,9 +8909,15 @@
       <c r="C353" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="D353" s="1"/>
-      <c r="E353" s="1"/>
-      <c r="F353" s="1"/>
+      <c r="D353" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E353" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F353" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="354" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A354" s="1" t="s">
@@ -6993,9 +8929,15 @@
       <c r="C354" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="D354" s="1"/>
-      <c r="E354" s="1"/>
-      <c r="F354" s="1"/>
+      <c r="D354" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E354" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F354" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="355" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A355" s="1" t="s">
@@ -7007,9 +8949,15 @@
       <c r="C355" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="D355" s="1"/>
-      <c r="E355" s="1"/>
-      <c r="F355" s="1"/>
+      <c r="D355" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E355" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F355" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="356" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A356" s="1" t="s">
@@ -7021,9 +8969,15 @@
       <c r="C356" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="D356" s="1"/>
-      <c r="E356" s="1"/>
-      <c r="F356" s="1"/>
+      <c r="D356" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E356" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F356" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="357" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A357" s="1" t="s">
@@ -7035,9 +8989,15 @@
       <c r="C357" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="D357" s="1"/>
-      <c r="E357" s="1"/>
-      <c r="F357" s="1"/>
+      <c r="D357" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E357" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F357" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="358" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A358" s="1" t="s">
@@ -7049,9 +9009,15 @@
       <c r="C358" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="D358" s="1"/>
-      <c r="E358" s="1"/>
-      <c r="F358" s="1"/>
+      <c r="D358" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E358" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F358" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="359" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A359" s="1" t="s">
@@ -7063,9 +9029,15 @@
       <c r="C359" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="D359" s="1"/>
-      <c r="E359" s="1"/>
-      <c r="F359" s="1"/>
+      <c r="D359" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E359" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F359" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="360" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A360" s="1" t="s">
@@ -7077,9 +9049,15 @@
       <c r="C360" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="D360" s="1"/>
-      <c r="E360" s="1"/>
-      <c r="F360" s="1"/>
+      <c r="D360" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E360" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F360" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="361" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A361" s="1" t="s">
@@ -7091,9 +9069,15 @@
       <c r="C361" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="D361" s="1"/>
-      <c r="E361" s="1"/>
-      <c r="F361" s="1"/>
+      <c r="D361" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E361" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F361" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="362" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A362" s="1" t="s">
@@ -7105,9 +9089,15 @@
       <c r="C362" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="D362" s="1"/>
-      <c r="E362" s="1"/>
-      <c r="F362" s="1"/>
+      <c r="D362" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E362" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F362" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="363" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A363" s="1" t="s">
@@ -7119,9 +9109,15 @@
       <c r="C363" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="D363" s="1"/>
-      <c r="E363" s="1"/>
-      <c r="F363" s="1"/>
+      <c r="D363" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E363" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F363" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="364" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A364" s="1" t="s">
@@ -7133,9 +9129,15 @@
       <c r="C364" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="D364" s="1"/>
-      <c r="E364" s="1"/>
-      <c r="F364" s="1"/>
+      <c r="D364" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E364" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F364" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="365" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A365" s="1" t="s">
@@ -7147,9 +9149,15 @@
       <c r="C365" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="D365" s="1"/>
-      <c r="E365" s="1"/>
-      <c r="F365" s="1"/>
+      <c r="D365" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E365" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F365" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="366" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A366" s="1" t="s">
@@ -7161,9 +9169,15 @@
       <c r="C366" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="D366" s="1"/>
-      <c r="E366" s="1"/>
-      <c r="F366" s="1"/>
+      <c r="D366" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E366" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F366" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="367" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A367" s="1" t="s">
@@ -7175,9 +9189,15 @@
       <c r="C367" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="D367" s="1"/>
-      <c r="E367" s="1"/>
-      <c r="F367" s="1"/>
+      <c r="D367" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E367" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F367" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="368" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A368" s="1" t="s">
@@ -7189,9 +9209,15 @@
       <c r="C368" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="D368" s="1"/>
-      <c r="E368" s="1"/>
-      <c r="F368" s="1"/>
+      <c r="D368" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E368" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F368" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="369" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A369" s="1" t="s">
@@ -7203,9 +9229,15 @@
       <c r="C369" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="D369" s="1"/>
-      <c r="E369" s="1"/>
-      <c r="F369" s="1"/>
+      <c r="D369" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E369" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F369" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="370" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A370" s="1" t="s">
@@ -7217,9 +9249,15 @@
       <c r="C370" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="D370" s="1"/>
-      <c r="E370" s="1"/>
-      <c r="F370" s="1"/>
+      <c r="D370" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E370" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F370" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="371" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A371" s="1" t="s">
@@ -7231,9 +9269,15 @@
       <c r="C371" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="D371" s="1"/>
-      <c r="E371" s="1"/>
-      <c r="F371" s="1"/>
+      <c r="D371" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E371" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F371" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="372" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A372" s="1" t="s">
@@ -7245,9 +9289,15 @@
       <c r="C372" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="D372" s="1"/>
-      <c r="E372" s="1"/>
-      <c r="F372" s="1"/>
+      <c r="D372" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E372" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F372" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="373" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A373" s="1" t="s">
@@ -7259,9 +9309,15 @@
       <c r="C373" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="D373" s="1"/>
-      <c r="E373" s="1"/>
-      <c r="F373" s="1"/>
+      <c r="D373" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E373" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F373" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="374" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A374" s="1" t="s">
@@ -7273,9 +9329,15 @@
       <c r="C374" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="D374" s="1"/>
-      <c r="E374" s="1"/>
-      <c r="F374" s="1"/>
+      <c r="D374" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E374" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F374" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="375" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A375" s="1" t="s">
@@ -7287,9 +9349,15 @@
       <c r="C375" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="D375" s="1"/>
-      <c r="E375" s="1"/>
-      <c r="F375" s="1"/>
+      <c r="D375" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E375" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F375" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="376" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A376" s="1" t="s">
@@ -7301,9 +9369,15 @@
       <c r="C376" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="D376" s="1"/>
-      <c r="E376" s="1"/>
-      <c r="F376" s="1"/>
+      <c r="D376" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E376" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F376" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="377" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A377" s="1" t="s">
@@ -7315,9 +9389,15 @@
       <c r="C377" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="D377" s="1"/>
-      <c r="E377" s="1"/>
-      <c r="F377" s="1"/>
+      <c r="D377" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E377" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F377" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="378" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A378" s="1" t="s">
@@ -7329,9 +9409,15 @@
       <c r="C378" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="D378" s="1"/>
-      <c r="E378" s="1"/>
-      <c r="F378" s="1"/>
+      <c r="D378" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E378" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F378" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="379" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A379" s="1" t="s">
@@ -7343,9 +9429,15 @@
       <c r="C379" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="D379" s="1"/>
-      <c r="E379" s="1"/>
-      <c r="F379" s="1"/>
+      <c r="D379" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E379" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F379" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="380" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A380" s="1" t="s">
@@ -7357,9 +9449,15 @@
       <c r="C380" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="D380" s="1"/>
-      <c r="E380" s="1"/>
-      <c r="F380" s="1"/>
+      <c r="D380" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E380" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F380" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="381" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A381" s="1" t="s">
@@ -7371,9 +9469,15 @@
       <c r="C381" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="D381" s="1"/>
-      <c r="E381" s="1"/>
-      <c r="F381" s="1"/>
+      <c r="D381" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E381" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F381" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="382" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A382" s="1" t="s">
@@ -7385,9 +9489,15 @@
       <c r="C382" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="D382" s="1"/>
-      <c r="E382" s="1"/>
-      <c r="F382" s="1"/>
+      <c r="D382" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E382" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F382" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="383" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A383" s="1" t="s">
@@ -7399,9 +9509,15 @@
       <c r="C383" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="D383" s="1"/>
-      <c r="E383" s="1"/>
-      <c r="F383" s="1"/>
+      <c r="D383" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E383" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F383" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="384" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A384" s="1" t="s">
@@ -7413,9 +9529,15 @@
       <c r="C384" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="D384" s="1"/>
-      <c r="E384" s="1"/>
-      <c r="F384" s="1"/>
+      <c r="D384" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E384" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F384" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="385" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A385" s="1" t="s">
@@ -7427,9 +9549,15 @@
       <c r="C385" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="D385" s="1"/>
-      <c r="E385" s="1"/>
-      <c r="F385" s="1"/>
+      <c r="D385" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E385" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F385" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="386" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A386" s="1" t="s">
@@ -7441,9 +9569,15 @@
       <c r="C386" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="D386" s="1"/>
-      <c r="E386" s="1"/>
-      <c r="F386" s="1"/>
+      <c r="D386" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E386" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F386" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="387" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A387" s="1" t="s">
@@ -7455,9 +9589,15 @@
       <c r="C387" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="D387" s="1"/>
-      <c r="E387" s="1"/>
-      <c r="F387" s="1"/>
+      <c r="D387" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E387" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F387" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="388" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A388" s="1" t="s">
@@ -7469,9 +9609,15 @@
       <c r="C388" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="D388" s="1"/>
-      <c r="E388" s="1"/>
-      <c r="F388" s="1"/>
+      <c r="D388" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E388" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F388" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="389" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A389" s="1" t="s">
@@ -7483,9 +9629,15 @@
       <c r="C389" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="D389" s="1"/>
-      <c r="E389" s="1"/>
-      <c r="F389" s="1"/>
+      <c r="D389" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E389" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F389" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="390" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A390" s="1" t="s">
@@ -7497,9 +9649,15 @@
       <c r="C390" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="D390" s="1"/>
-      <c r="E390" s="1"/>
-      <c r="F390" s="1"/>
+      <c r="D390" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E390" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F390" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="391" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A391" s="1" t="s">
@@ -7511,9 +9669,15 @@
       <c r="C391" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="D391" s="1"/>
-      <c r="E391" s="1"/>
-      <c r="F391" s="1"/>
+      <c r="D391" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E391" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F391" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="392" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A392" s="1" t="s">
@@ -7525,9 +9689,15 @@
       <c r="C392" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="D392" s="1"/>
-      <c r="E392" s="1"/>
-      <c r="F392" s="1"/>
+      <c r="D392" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E392" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F392" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="393" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A393" s="1" t="s">
@@ -7539,9 +9709,15 @@
       <c r="C393" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="D393" s="1"/>
-      <c r="E393" s="1"/>
-      <c r="F393" s="1"/>
+      <c r="D393" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E393" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F393" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="394" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A394" s="1" t="s">
@@ -7553,9 +9729,15 @@
       <c r="C394" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="D394" s="1"/>
-      <c r="E394" s="1"/>
-      <c r="F394" s="1"/>
+      <c r="D394" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E394" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F394" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="395" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A395" s="1" t="s">
@@ -7567,9 +9749,15 @@
       <c r="C395" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="D395" s="1"/>
-      <c r="E395" s="1"/>
-      <c r="F395" s="1"/>
+      <c r="D395" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E395" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F395" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="396" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A396" s="1" t="s">
@@ -7581,9 +9769,15 @@
       <c r="C396" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="D396" s="1"/>
-      <c r="E396" s="1"/>
-      <c r="F396" s="1"/>
+      <c r="D396" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E396" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F396" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="397" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A397" s="1" t="s">
@@ -7595,9 +9789,15 @@
       <c r="C397" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="D397" s="1"/>
-      <c r="E397" s="1"/>
-      <c r="F397" s="1"/>
+      <c r="D397" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E397" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F397" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="398" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A398" s="1" t="s">
@@ -7609,9 +9809,15 @@
       <c r="C398" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="D398" s="1"/>
-      <c r="E398" s="1"/>
-      <c r="F398" s="1"/>
+      <c r="D398" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E398" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F398" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="399" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A399" s="1" t="s">
@@ -7623,9 +9829,15 @@
       <c r="C399" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="D399" s="1"/>
-      <c r="E399" s="1"/>
-      <c r="F399" s="1"/>
+      <c r="D399" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E399" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F399" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="400" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A400" s="1" t="s">
@@ -7637,9 +9849,15 @@
       <c r="C400" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="D400" s="1"/>
-      <c r="E400" s="1"/>
-      <c r="F400" s="1"/>
+      <c r="D400" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E400" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F400" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="401" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A401" s="1" t="s">
@@ -7651,9 +9869,15 @@
       <c r="C401" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="D401" s="1"/>
-      <c r="E401" s="1"/>
-      <c r="F401" s="1"/>
+      <c r="D401" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E401" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F401" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="402" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A402" s="1" t="s">
@@ -7665,9 +9889,15 @@
       <c r="C402" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="D402" s="1"/>
-      <c r="E402" s="1"/>
-      <c r="F402" s="1"/>
+      <c r="D402" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E402" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F402" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="403" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A403" s="1" t="s">
@@ -7679,9 +9909,15 @@
       <c r="C403" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="D403" s="1"/>
-      <c r="E403" s="1"/>
-      <c r="F403" s="1"/>
+      <c r="D403" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E403" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F403" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="404" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A404" s="1" t="s">
@@ -7693,9 +9929,15 @@
       <c r="C404" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="D404" s="1"/>
-      <c r="E404" s="1"/>
-      <c r="F404" s="1"/>
+      <c r="D404" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E404" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F404" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="405" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A405" s="1" t="s">
@@ -7707,9 +9949,15 @@
       <c r="C405" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="D405" s="1"/>
-      <c r="E405" s="1"/>
-      <c r="F405" s="1"/>
+      <c r="D405" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E405" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F405" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="406" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A406" s="1" t="s">
@@ -7721,9 +9969,15 @@
       <c r="C406" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="D406" s="1"/>
-      <c r="E406" s="1"/>
-      <c r="F406" s="1"/>
+      <c r="D406" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E406" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F406" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="407" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A407" s="1" t="s">
@@ -7735,9 +9989,15 @@
       <c r="C407" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="D407" s="1"/>
-      <c r="E407" s="1"/>
-      <c r="F407" s="1"/>
+      <c r="D407" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E407" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F407" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="408" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A408" s="1" t="s">
@@ -7749,9 +10009,15 @@
       <c r="C408" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="D408" s="1"/>
-      <c r="E408" s="1"/>
-      <c r="F408" s="1"/>
+      <c r="D408" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E408" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F408" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="409" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A409" s="1" t="s">
@@ -7763,9 +10029,15 @@
       <c r="C409" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="D409" s="1"/>
-      <c r="E409" s="1"/>
-      <c r="F409" s="1"/>
+      <c r="D409" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E409" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F409" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="410" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A410" s="1" t="s">
@@ -7777,9 +10049,15 @@
       <c r="C410" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="D410" s="1"/>
-      <c r="E410" s="1"/>
-      <c r="F410" s="1"/>
+      <c r="D410" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E410" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F410" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="411" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A411" s="1" t="s">
@@ -7791,9 +10069,15 @@
       <c r="C411" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="D411" s="1"/>
-      <c r="E411" s="1"/>
-      <c r="F411" s="1"/>
+      <c r="D411" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E411" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F411" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="412" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A412" s="1" t="s">
@@ -7805,9 +10089,15 @@
       <c r="C412" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="D412" s="1"/>
-      <c r="E412" s="1"/>
-      <c r="F412" s="1"/>
+      <c r="D412" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E412" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F412" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="413" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A413" s="1" t="s">
@@ -7819,9 +10109,15 @@
       <c r="C413" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="D413" s="1"/>
-      <c r="E413" s="1"/>
-      <c r="F413" s="1"/>
+      <c r="D413" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E413" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F413" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="414" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A414" s="1" t="s">
@@ -7833,9 +10129,15 @@
       <c r="C414" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="D414" s="1"/>
-      <c r="E414" s="1"/>
-      <c r="F414" s="1"/>
+      <c r="D414" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E414" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F414" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="415" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A415" s="1" t="s">
@@ -7847,9 +10149,15 @@
       <c r="C415" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="D415" s="1"/>
-      <c r="E415" s="1"/>
-      <c r="F415" s="1"/>
+      <c r="D415" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E415" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F415" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="416" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A416" s="1" t="s">
@@ -7861,9 +10169,15 @@
       <c r="C416" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="D416" s="1"/>
-      <c r="E416" s="1"/>
-      <c r="F416" s="1"/>
+      <c r="D416" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E416" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F416" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="417" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A417" s="1" t="s">
@@ -7875,9 +10189,15 @@
       <c r="C417" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="D417" s="1"/>
-      <c r="E417" s="1"/>
-      <c r="F417" s="1"/>
+      <c r="D417" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E417" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F417" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="418" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A418" s="1" t="s">
@@ -7889,9 +10209,15 @@
       <c r="C418" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="D418" s="1"/>
-      <c r="E418" s="1"/>
-      <c r="F418" s="1"/>
+      <c r="D418" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E418" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F418" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="419" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A419" s="1" t="s">
@@ -7903,9 +10229,15 @@
       <c r="C419" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="D419" s="1"/>
-      <c r="E419" s="1"/>
-      <c r="F419" s="1"/>
+      <c r="D419" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E419" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F419" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="420" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A420" s="1" t="s">
@@ -7917,9 +10249,15 @@
       <c r="C420" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="D420" s="1"/>
-      <c r="E420" s="1"/>
-      <c r="F420" s="1"/>
+      <c r="D420" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E420" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F420" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="421" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A421" s="1" t="s">
@@ -7931,9 +10269,15 @@
       <c r="C421" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="D421" s="1"/>
-      <c r="E421" s="1"/>
-      <c r="F421" s="1"/>
+      <c r="D421" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E421" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F421" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="422" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A422" s="1" t="s">
@@ -7945,9 +10289,15 @@
       <c r="C422" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="D422" s="1"/>
-      <c r="E422" s="1"/>
-      <c r="F422" s="1"/>
+      <c r="D422" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E422" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F422" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="423" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A423" s="1" t="s">
@@ -7959,9 +10309,15 @@
       <c r="C423" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="D423" s="1"/>
-      <c r="E423" s="1"/>
-      <c r="F423" s="1"/>
+      <c r="D423" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E423" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F423" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="424" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A424" s="1" t="s">
@@ -7973,9 +10329,15 @@
       <c r="C424" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="D424" s="1"/>
-      <c r="E424" s="1"/>
-      <c r="F424" s="1"/>
+      <c r="D424" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E424" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F424" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="425" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A425" s="1" t="s">
@@ -7987,9 +10349,15 @@
       <c r="C425" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="D425" s="1"/>
-      <c r="E425" s="1"/>
-      <c r="F425" s="1"/>
+      <c r="D425" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E425" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F425" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="426" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A426" s="1" t="s">
@@ -8001,9 +10369,15 @@
       <c r="C426" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="D426" s="1"/>
-      <c r="E426" s="1"/>
-      <c r="F426" s="1"/>
+      <c r="D426" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E426" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F426" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="427" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A427" s="1" t="s">
@@ -8015,9 +10389,15 @@
       <c r="C427" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="D427" s="1"/>
-      <c r="E427" s="1"/>
-      <c r="F427" s="1"/>
+      <c r="D427" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E427" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F427" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="428" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A428" s="1" t="s">
@@ -8029,9 +10409,15 @@
       <c r="C428" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="D428" s="1"/>
-      <c r="E428" s="1"/>
-      <c r="F428" s="1"/>
+      <c r="D428" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E428" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F428" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="429" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A429" s="1" t="s">
@@ -8043,9 +10429,15 @@
       <c r="C429" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="D429" s="1"/>
-      <c r="E429" s="1"/>
-      <c r="F429" s="1"/>
+      <c r="D429" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E429" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F429" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="430" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A430" s="1" t="s">
@@ -8057,9 +10449,15 @@
       <c r="C430" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="D430" s="1"/>
-      <c r="E430" s="1"/>
-      <c r="F430" s="1"/>
+      <c r="D430" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E430" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F430" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="431" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A431" s="1" t="s">
@@ -8071,9 +10469,15 @@
       <c r="C431" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="D431" s="1"/>
-      <c r="E431" s="1"/>
-      <c r="F431" s="1"/>
+      <c r="D431" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E431" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F431" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="432" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A432" s="1" t="s">
@@ -8085,9 +10489,15 @@
       <c r="C432" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="D432" s="1"/>
-      <c r="E432" s="1"/>
-      <c r="F432" s="1"/>
+      <c r="D432" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E432" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F432" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="433" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A433" s="1" t="s">
@@ -8099,9 +10509,15 @@
       <c r="C433" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="D433" s="1"/>
-      <c r="E433" s="1"/>
-      <c r="F433" s="1"/>
+      <c r="D433" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E433" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F433" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="434" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A434" s="1" t="s">
@@ -8113,9 +10529,15 @@
       <c r="C434" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="D434" s="1"/>
-      <c r="E434" s="1"/>
-      <c r="F434" s="1"/>
+      <c r="D434" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E434" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F434" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="435" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A435" s="1" t="s">
@@ -8127,9 +10549,15 @@
       <c r="C435" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="D435" s="1"/>
-      <c r="E435" s="1"/>
-      <c r="F435" s="1"/>
+      <c r="D435" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E435" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F435" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="436" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A436" s="1" t="s">
@@ -8141,9 +10569,15 @@
       <c r="C436" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="D436" s="1"/>
-      <c r="E436" s="1"/>
-      <c r="F436" s="1"/>
+      <c r="D436" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E436" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F436" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="437" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A437" s="1" t="s">
@@ -8155,9 +10589,15 @@
       <c r="C437" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="D437" s="1"/>
-      <c r="E437" s="1"/>
-      <c r="F437" s="1"/>
+      <c r="D437" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E437" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F437" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="438" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A438" s="1" t="s">
@@ -8169,9 +10609,15 @@
       <c r="C438" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="D438" s="1"/>
-      <c r="E438" s="1"/>
-      <c r="F438" s="1"/>
+      <c r="D438" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E438" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F438" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="439" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A439" s="1" t="s">
@@ -8183,9 +10629,15 @@
       <c r="C439" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="D439" s="1"/>
-      <c r="E439" s="1"/>
-      <c r="F439" s="1"/>
+      <c r="D439" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E439" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F439" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="440" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A440" s="1" t="s">
@@ -8197,9 +10649,15 @@
       <c r="C440" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="D440" s="1"/>
-      <c r="E440" s="1"/>
-      <c r="F440" s="1"/>
+      <c r="D440" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E440" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F440" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="441" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A441" s="1" t="s">
@@ -8211,9 +10669,15 @@
       <c r="C441" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="D441" s="1"/>
-      <c r="E441" s="1"/>
-      <c r="F441" s="1"/>
+      <c r="D441" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E441" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F441" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="442" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A442" s="1" t="s">
@@ -8225,9 +10689,15 @@
       <c r="C442" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="D442" s="1"/>
-      <c r="E442" s="1"/>
-      <c r="F442" s="1"/>
+      <c r="D442" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E442" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F442" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="443" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A443" s="1" t="s">
@@ -8239,9 +10709,15 @@
       <c r="C443" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="D443" s="1"/>
-      <c r="E443" s="1"/>
-      <c r="F443" s="1"/>
+      <c r="D443" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E443" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F443" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="444" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A444" s="1" t="s">
@@ -8253,9 +10729,15 @@
       <c r="C444" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="D444" s="1"/>
-      <c r="E444" s="1"/>
-      <c r="F444" s="1"/>
+      <c r="D444" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E444" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F444" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="445" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A445" s="1" t="s">
@@ -8267,9 +10749,15 @@
       <c r="C445" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="D445" s="1"/>
-      <c r="E445" s="1"/>
-      <c r="F445" s="1"/>
+      <c r="D445" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E445" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F445" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="446" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A446" s="1" t="s">
@@ -8281,9 +10769,15 @@
       <c r="C446" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="D446" s="1"/>
-      <c r="E446" s="1"/>
-      <c r="F446" s="1"/>
+      <c r="D446" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E446" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F446" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="447" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A447" s="1" t="s">
@@ -8295,9 +10789,15 @@
       <c r="C447" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="D447" s="1"/>
-      <c r="E447" s="1"/>
-      <c r="F447" s="1"/>
+      <c r="D447" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E447" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F447" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="448" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A448" s="1" t="s">
@@ -8309,9 +10809,15 @@
       <c r="C448" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="D448" s="1"/>
-      <c r="E448" s="1"/>
-      <c r="F448" s="1"/>
+      <c r="D448" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E448" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F448" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="449" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A449" s="1" t="s">
@@ -8323,9 +10829,15 @@
       <c r="C449" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="D449" s="1"/>
-      <c r="E449" s="1"/>
-      <c r="F449" s="1"/>
+      <c r="D449" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E449" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F449" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="450" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A450" s="1" t="s">
@@ -8337,9 +10849,15 @@
       <c r="C450" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="D450" s="1"/>
-      <c r="E450" s="1"/>
-      <c r="F450" s="1"/>
+      <c r="D450" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E450" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F450" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="451" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A451" s="1" t="s">
@@ -8351,9 +10869,15 @@
       <c r="C451" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="D451" s="1"/>
-      <c r="E451" s="1"/>
-      <c r="F451" s="1"/>
+      <c r="D451" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E451" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F451" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="452" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A452" s="1" t="s">
@@ -8365,9 +10889,15 @@
       <c r="C452" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="D452" s="1"/>
-      <c r="E452" s="1"/>
-      <c r="F452" s="1"/>
+      <c r="D452" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E452" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F452" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="453" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A453" s="1" t="s">
@@ -8379,9 +10909,15 @@
       <c r="C453" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="D453" s="1"/>
-      <c r="E453" s="1"/>
-      <c r="F453" s="1"/>
+      <c r="D453" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E453" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F453" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="454" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A454" s="1" t="s">
@@ -8393,9 +10929,15 @@
       <c r="C454" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="D454" s="1"/>
-      <c r="E454" s="1"/>
-      <c r="F454" s="1"/>
+      <c r="D454" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E454" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F454" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="455" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A455" s="1" t="s">
@@ -8407,9 +10949,15 @@
       <c r="C455" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="D455" s="1"/>
-      <c r="E455" s="1"/>
-      <c r="F455" s="1"/>
+      <c r="D455" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E455" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F455" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="456" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A456" s="1" t="s">
@@ -8421,9 +10969,15 @@
       <c r="C456" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="D456" s="1"/>
-      <c r="E456" s="1"/>
-      <c r="F456" s="1"/>
+      <c r="D456" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E456" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F456" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="457" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A457" s="1" t="s">
@@ -8435,9 +10989,15 @@
       <c r="C457" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="D457" s="1"/>
-      <c r="E457" s="1"/>
-      <c r="F457" s="1"/>
+      <c r="D457" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E457" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F457" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="458" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A458" s="1" t="s">
@@ -8449,9 +11009,15 @@
       <c r="C458" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="D458" s="1"/>
-      <c r="E458" s="1"/>
-      <c r="F458" s="1"/>
+      <c r="D458" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E458" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F458" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="459" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A459" s="1" t="s">
@@ -8463,9 +11029,15 @@
       <c r="C459" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="D459" s="1"/>
-      <c r="E459" s="1"/>
-      <c r="F459" s="1"/>
+      <c r="D459" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E459" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F459" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="460" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A460" s="1" t="s">
@@ -8477,9 +11049,15 @@
       <c r="C460" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="D460" s="1"/>
-      <c r="E460" s="1"/>
-      <c r="F460" s="1"/>
+      <c r="D460" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E460" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F460" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="461" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A461" s="1" t="s">
@@ -8491,9 +11069,15 @@
       <c r="C461" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="D461" s="1"/>
-      <c r="E461" s="1"/>
-      <c r="F461" s="1"/>
+      <c r="D461" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E461" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F461" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="462" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A462" s="1" t="s">
@@ -8505,9 +11089,15 @@
       <c r="C462" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="D462" s="1"/>
-      <c r="E462" s="1"/>
-      <c r="F462" s="1"/>
+      <c r="D462" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E462" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F462" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="463" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A463" s="1" t="s">
@@ -8519,9 +11109,15 @@
       <c r="C463" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="D463" s="1"/>
-      <c r="E463" s="1"/>
-      <c r="F463" s="1"/>
+      <c r="D463" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E463" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F463" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="464" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A464" s="1" t="s">
@@ -8533,9 +11129,15 @@
       <c r="C464" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="D464" s="1"/>
-      <c r="E464" s="1"/>
-      <c r="F464" s="1"/>
+      <c r="D464" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E464" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F464" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="465" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A465" s="1" t="s">
@@ -8547,9 +11149,15 @@
       <c r="C465" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="D465" s="1"/>
-      <c r="E465" s="1"/>
-      <c r="F465" s="1"/>
+      <c r="D465" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E465" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F465" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="466" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A466" s="1" t="s">
@@ -8561,9 +11169,15 @@
       <c r="C466" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="D466" s="1"/>
-      <c r="E466" s="1"/>
-      <c r="F466" s="1"/>
+      <c r="D466" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E466" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F466" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="467" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A467" s="1" t="s">
@@ -8575,9 +11189,15 @@
       <c r="C467" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="D467" s="1"/>
-      <c r="E467" s="1"/>
-      <c r="F467" s="1"/>
+      <c r="D467" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E467" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F467" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="468" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A468" s="1" t="s">
@@ -8589,9 +11209,15 @@
       <c r="C468" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="D468" s="1"/>
-      <c r="E468" s="1"/>
-      <c r="F468" s="1"/>
+      <c r="D468" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E468" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F468" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="469" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A469" s="1" t="s">
@@ -8603,9 +11229,15 @@
       <c r="C469" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="D469" s="1"/>
-      <c r="E469" s="1"/>
-      <c r="F469" s="1"/>
+      <c r="D469" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E469" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F469" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="470" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A470" s="1" t="s">
@@ -8617,9 +11249,15 @@
       <c r="C470" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="D470" s="1"/>
-      <c r="E470" s="1"/>
-      <c r="F470" s="1"/>
+      <c r="D470" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E470" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F470" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="471" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A471" s="1" t="s">
@@ -8631,9 +11269,15 @@
       <c r="C471" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="D471" s="1"/>
-      <c r="E471" s="1"/>
-      <c r="F471" s="1"/>
+      <c r="D471" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E471" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F471" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="472" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A472" s="1" t="s">
@@ -8645,9 +11289,15 @@
       <c r="C472" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="D472" s="1"/>
-      <c r="E472" s="1"/>
-      <c r="F472" s="1"/>
+      <c r="D472" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E472" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F472" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="473" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A473" s="1" t="s">
@@ -8659,9 +11309,15 @@
       <c r="C473" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="D473" s="1"/>
-      <c r="E473" s="1"/>
-      <c r="F473" s="1"/>
+      <c r="D473" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E473" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F473" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="474" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A474" s="1" t="s">
@@ -8673,9 +11329,15 @@
       <c r="C474" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="D474" s="1"/>
-      <c r="E474" s="1"/>
-      <c r="F474" s="1"/>
+      <c r="D474" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E474" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F474" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="475" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A475" s="1" t="s">
@@ -8687,9 +11349,15 @@
       <c r="C475" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="D475" s="1"/>
-      <c r="E475" s="1"/>
-      <c r="F475" s="1"/>
+      <c r="D475" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E475" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F475" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="476" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A476" s="1" t="s">
@@ -8701,9 +11369,15 @@
       <c r="C476" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="D476" s="1"/>
-      <c r="E476" s="1"/>
-      <c r="F476" s="1"/>
+      <c r="D476" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E476" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F476" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="477" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A477" s="1" t="s">
@@ -8715,9 +11389,15 @@
       <c r="C477" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="D477" s="1"/>
-      <c r="E477" s="1"/>
-      <c r="F477" s="1"/>
+      <c r="D477" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E477" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F477" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="478" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A478" s="1" t="s">
@@ -8729,9 +11409,15 @@
       <c r="C478" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="D478" s="1"/>
-      <c r="E478" s="1"/>
-      <c r="F478" s="1"/>
+      <c r="D478" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E478" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F478" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
